--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항.xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\30.analysis\320.environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C9E3B14-2434-44AD-8F9F-4D1F4EE43B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C42D4B-42D2-4C32-BE61-879A1A018C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8580" yWindow="0" windowWidth="17205" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$129</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$131</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="216">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -891,6 +891,22 @@
   </si>
   <si>
     <t>아이디 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 최종 판매가에 포인트 적립률을 적용하여 구매자에 누적되게 해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 원가에 할인율을 적용하여 할인가를 적용할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1142,6 +1158,30 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1151,24 +1191,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1177,12 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,10 +1489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1490,15 +1506,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1536,13 +1552,13 @@
       <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="28" t="s">
+      <c r="D4" s="36" t="s">
         <v>73</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -1557,9 +1573,9 @@
       <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="23" t="s">
         <v>32</v>
       </c>
@@ -1572,9 +1588,9 @@
       <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="36"/>
       <c r="E6" s="23" t="s">
         <v>168</v>
       </c>
@@ -1587,9 +1603,9 @@
       <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="36"/>
       <c r="E7" s="23" t="s">
         <v>169</v>
       </c>
@@ -1602,10 +1618,10 @@
       <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="26" t="s">
+      <c r="B8" s="29"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="34" t="s">
         <v>171</v>
       </c>
       <c r="F8" s="24" t="s">
@@ -1617,10 +1633,10 @@
       <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="27"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
       <c r="F9" s="25" t="s">
         <v>173</v>
       </c>
@@ -1630,10 +1646,10 @@
       <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="27"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
       <c r="F10" s="3" t="s">
         <v>174</v>
       </c>
@@ -1643,10 +1659,10 @@
       <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
       <c r="F11" s="3" t="s">
         <v>175</v>
       </c>
@@ -1656,9 +1672,9 @@
       <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="29"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="36" t="s">
         <v>166</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -1673,9 +1689,9 @@
       <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="36"/>
       <c r="E13" s="23" t="s">
         <v>178</v>
       </c>
@@ -1688,9 +1704,9 @@
       <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="36"/>
       <c r="E14" s="23" t="s">
         <v>180</v>
       </c>
@@ -1703,9 +1719,9 @@
       <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="36"/>
       <c r="E15" s="23" t="s">
         <v>183</v>
       </c>
@@ -1718,9 +1734,9 @@
       <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="36"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="36"/>
       <c r="E16" s="23" t="s">
         <v>150</v>
       </c>
@@ -1733,9 +1749,9 @@
       <c r="A17" s="22">
         <v>14</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="38" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="27" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="7" t="s">
@@ -1750,9 +1766,9 @@
       <c r="A18" s="22">
         <v>15</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="38"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="27"/>
       <c r="E18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1765,10 +1781,10 @@
       <c r="A19" s="22">
         <v>16</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38" t="s">
+      <c r="B19" s="29"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27" t="s">
         <v>30</v>
       </c>
       <c r="F19" s="13" t="s">
@@ -1780,10 +1796,10 @@
       <c r="A20" s="22">
         <v>17</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
       <c r="F20" t="s">
         <v>138</v>
       </c>
@@ -1793,9 +1809,9 @@
       <c r="A21" s="22">
         <v>18</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="38"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="27"/>
       <c r="E21" s="7" t="s">
         <v>103</v>
       </c>
@@ -1808,9 +1824,9 @@
       <c r="A22" s="22">
         <v>19</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="27"/>
       <c r="E22" s="7" t="s">
         <v>131</v>
       </c>
@@ -1823,10 +1839,10 @@
       <c r="A23" s="22">
         <v>20</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38" t="s">
+      <c r="B23" s="29"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27" t="s">
         <v>26</v>
       </c>
       <c r="F23" s="13" t="s">
@@ -1838,10 +1854,10 @@
       <c r="A24" s="22">
         <v>21</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="14" t="s">
         <v>76</v>
       </c>
@@ -1851,9 +1867,9 @@
       <c r="A25" s="22">
         <v>22</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="38"/>
+      <c r="B25" s="29"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="27"/>
       <c r="E25" s="7" t="s">
         <v>25</v>
       </c>
@@ -1866,9 +1882,9 @@
       <c r="A26" s="22">
         <v>23</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="27"/>
       <c r="E26" s="7" t="s">
         <v>134</v>
       </c>
@@ -1879,9 +1895,9 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="22"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="33" t="s">
+      <c r="B27" s="29"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E27" s="12" t="s">
@@ -1896,9 +1912,9 @@
       <c r="A28" s="22">
         <v>24</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="33"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="29"/>
       <c r="E28" s="12" t="s">
         <v>105</v>
       </c>
@@ -1911,10 +1927,10 @@
       <c r="A29" s="22">
         <v>26</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="32" t="s">
+      <c r="B29" s="29"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="28" t="s">
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -1926,10 +1942,10 @@
       <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
+      <c r="B30" s="29"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
@@ -1939,10 +1955,10 @@
       <c r="A31" s="22">
         <v>28</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="32" t="s">
+      <c r="B31" s="29"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="28" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -1954,10 +1970,10 @@
       <c r="A32" s="22">
         <v>29</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
       <c r="F32" s="3" t="s">
         <v>12</v>
       </c>
@@ -1967,10 +1983,10 @@
       <c r="A33" s="22">
         <v>30</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="8" t="s">
         <v>78</v>
       </c>
@@ -1980,9 +1996,9 @@
       <c r="A34" s="22">
         <v>31</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="36"/>
-      <c r="D34" s="34"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="30"/>
       <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
@@ -1995,9 +2011,9 @@
       <c r="A35" s="22">
         <v>32</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="32" t="s">
+      <c r="B35" s="29"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="28" t="s">
         <v>14</v>
       </c>
       <c r="E35" s="12" t="s">
@@ -2012,10 +2028,10 @@
       <c r="A36" s="22">
         <v>33</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="36"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="32" t="s">
+      <c r="B36" s="29"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="28" t="s">
         <v>122</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2027,10 +2043,10 @@
       <c r="A37" s="22">
         <v>34</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="3" t="s">
         <v>81</v>
       </c>
@@ -2040,10 +2056,10 @@
       <c r="A38" s="22">
         <v>35</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="32" t="s">
+      <c r="B38" s="29"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="28" t="s">
         <v>121</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2055,10 +2071,10 @@
       <c r="A39" s="22">
         <v>36</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
       <c r="F39" s="3" t="s">
         <v>16</v>
       </c>
@@ -2068,10 +2084,10 @@
       <c r="A40" s="22">
         <v>37</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
       <c r="F40" s="3" t="s">
         <v>139</v>
       </c>
@@ -2081,10 +2097,10 @@
       <c r="A41" s="22">
         <v>38</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
       <c r="F41" s="3" t="s">
         <v>70</v>
       </c>
@@ -2094,10 +2110,10 @@
       <c r="A42" s="22">
         <v>39</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
       <c r="F42" s="3" t="s">
         <v>66</v>
       </c>
@@ -2107,10 +2123,10 @@
       <c r="A43" s="22">
         <v>40</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="36"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33" t="s">
+      <c r="B43" s="29"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="29" t="s">
         <v>69</v>
       </c>
       <c r="F43" s="3" t="s">
@@ -2122,10 +2138,10 @@
       <c r="A44" s="22">
         <v>41</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
       <c r="F44" s="8" t="s">
         <v>79</v>
       </c>
@@ -2133,9 +2149,9 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="22"/>
-      <c r="B45" s="33"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="33"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="29"/>
       <c r="E45" s="10" t="s">
         <v>191</v>
       </c>
@@ -2148,9 +2164,9 @@
       <c r="A46" s="22">
         <v>42</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="33"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="29"/>
       <c r="E46" s="10" t="s">
         <v>143</v>
       </c>
@@ -2163,9 +2179,9 @@
       <c r="A47" s="22">
         <v>43</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="33"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="29"/>
       <c r="E47" s="15" t="s">
         <v>68</v>
       </c>
@@ -2178,10 +2194,10 @@
       <c r="A48" s="22">
         <v>44</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="29" t="s">
+      <c r="B48" s="29"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="29"/>
+      <c r="E48" s="31" t="s">
         <v>17</v>
       </c>
       <c r="F48" s="9" t="s">
@@ -2193,10 +2209,10 @@
       <c r="A49" s="22">
         <v>45</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="31"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="29"/>
+      <c r="E49" s="32"/>
       <c r="F49" s="3" t="s">
         <v>84</v>
       </c>
@@ -2206,9 +2222,9 @@
       <c r="A50" s="22">
         <v>46</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="36"/>
-      <c r="D50" s="33"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="38"/>
+      <c r="D50" s="29"/>
       <c r="E50" s="7" t="s">
         <v>63</v>
       </c>
@@ -2221,10 +2237,10 @@
       <c r="A51" s="22">
         <v>47</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="29" t="s">
+      <c r="B51" s="29"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="31" t="s">
         <v>64</v>
       </c>
       <c r="F51" s="8" t="s">
@@ -2236,10 +2252,10 @@
       <c r="A52" s="22">
         <v>48</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="36"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="30"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="33"/>
       <c r="F52" s="3" t="s">
         <v>65</v>
       </c>
@@ -2249,10 +2265,10 @@
       <c r="A53" s="22">
         <v>49</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="36"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="31"/>
+      <c r="B53" s="29"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="32"/>
       <c r="F53" s="3" t="s">
         <v>142</v>
       </c>
@@ -2262,10 +2278,10 @@
       <c r="A54" s="22">
         <v>50</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="36"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="29" t="s">
+      <c r="B54" s="29"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="31" t="s">
         <v>123</v>
       </c>
       <c r="F54" s="3" t="s">
@@ -2277,10 +2293,10 @@
       <c r="A55" s="22">
         <v>51</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="36"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="31"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="30"/>
+      <c r="E55" s="32"/>
       <c r="F55" s="3" t="s">
         <v>140</v>
       </c>
@@ -2290,12 +2306,12 @@
       <c r="A56" s="22">
         <v>52</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="36"/>
-      <c r="D56" s="32" t="s">
+      <c r="B56" s="29"/>
+      <c r="C56" s="38"/>
+      <c r="D56" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E56" s="28" t="s">
         <v>108</v>
       </c>
       <c r="F56" s="3" t="s">
@@ -2307,10 +2323,10 @@
       <c r="A57" s="22">
         <v>53</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="36"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="29"/>
       <c r="F57" s="3" t="s">
         <v>86</v>
       </c>
@@ -2320,10 +2336,10 @@
       <c r="A58" s="22">
         <v>54</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="36"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="34"/>
+      <c r="B58" s="29"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="3" t="s">
         <v>34</v>
       </c>
@@ -2333,9 +2349,9 @@
       <c r="A59" s="22">
         <v>55</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="36"/>
-      <c r="D59" s="33"/>
+      <c r="B59" s="29"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="29"/>
       <c r="E59" s="10" t="s">
         <v>71</v>
       </c>
@@ -2348,9 +2364,9 @@
       <c r="A60" s="22">
         <v>56</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="36"/>
-      <c r="D60" s="33"/>
+      <c r="B60" s="29"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="29"/>
       <c r="E60" s="12" t="s">
         <v>72</v>
       </c>
@@ -2363,10 +2379,10 @@
       <c r="A61" s="22">
         <v>57</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="36"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="32" t="s">
+      <c r="B61" s="29"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="28" t="s">
         <v>73</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -2378,10 +2394,10 @@
       <c r="A62" s="22">
         <v>58</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="36"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
+      <c r="B62" s="29"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="29"/>
+      <c r="E62" s="29"/>
       <c r="F62" s="3" t="s">
         <v>118</v>
       </c>
@@ -2391,10 +2407,10 @@
       <c r="A63" s="22">
         <v>59</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="36"/>
-      <c r="D63" s="34"/>
-      <c r="E63" s="34"/>
+      <c r="B63" s="29"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="30"/>
+      <c r="E63" s="30"/>
       <c r="F63" s="3" t="s">
         <v>87</v>
       </c>
@@ -2404,12 +2420,12 @@
       <c r="A64" s="22">
         <v>60</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="36"/>
-      <c r="D64" s="32" t="s">
+      <c r="B64" s="29"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E64" s="28" t="s">
         <v>27</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -2421,10 +2437,10 @@
       <c r="A65" s="22">
         <v>61</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="36"/>
-      <c r="D65" s="33"/>
-      <c r="E65" s="33"/>
+      <c r="B65" s="29"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
       <c r="F65" s="3" t="s">
         <v>88</v>
       </c>
@@ -2432,10 +2448,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="22"/>
-      <c r="B66" s="33"/>
-      <c r="C66" s="36"/>
-      <c r="D66" s="33"/>
-      <c r="E66" s="32" t="s">
+      <c r="B66" s="29"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="29"/>
+      <c r="E66" s="28" t="s">
         <v>150</v>
       </c>
       <c r="F66" s="9" t="s">
@@ -2445,10 +2461,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="22"/>
-      <c r="B67" s="33"/>
-      <c r="C67" s="36"/>
-      <c r="D67" s="33"/>
-      <c r="E67" s="33"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="29"/>
+      <c r="E67" s="29"/>
       <c r="F67" s="17" t="s">
         <v>152</v>
       </c>
@@ -2456,10 +2472,10 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="22"/>
-      <c r="B68" s="33"/>
-      <c r="C68" s="36"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="B68" s="29"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
       <c r="F68" s="17" t="s">
         <v>156</v>
       </c>
@@ -2467,10 +2483,10 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="22"/>
-      <c r="B69" s="33"/>
-      <c r="C69" s="36"/>
-      <c r="D69" s="33"/>
-      <c r="E69" s="33"/>
+      <c r="B69" s="29"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="29"/>
+      <c r="E69" s="29"/>
       <c r="F69" s="17" t="s">
         <v>153</v>
       </c>
@@ -2478,10 +2494,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="22"/>
-      <c r="B70" s="33"/>
-      <c r="C70" s="36"/>
-      <c r="D70" s="33"/>
-      <c r="E70" s="33"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
       <c r="F70" s="17" t="s">
         <v>155</v>
       </c>
@@ -2489,10 +2505,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="22"/>
-      <c r="B71" s="33"/>
-      <c r="C71" s="36"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="33"/>
+      <c r="B71" s="29"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="29"/>
+      <c r="E71" s="29"/>
       <c r="F71" s="9" t="s">
         <v>154</v>
       </c>
@@ -2500,10 +2516,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="22"/>
-      <c r="B72" s="33"/>
-      <c r="C72" s="36"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="32" t="s">
+      <c r="B72" s="29"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="28" t="s">
         <v>199</v>
       </c>
       <c r="F72" s="13" t="s">
@@ -2515,10 +2531,10 @@
       <c r="A73" s="22">
         <v>62</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="36"/>
-      <c r="D73" s="33"/>
-      <c r="E73" s="33"/>
+      <c r="B73" s="29"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="29"/>
       <c r="F73" s="18" t="s">
         <v>203</v>
       </c>
@@ -2528,10 +2544,10 @@
       <c r="A74" s="22">
         <v>63</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="36"/>
-      <c r="D74" s="33"/>
-      <c r="E74" s="34"/>
+      <c r="B74" s="29"/>
+      <c r="C74" s="38"/>
+      <c r="D74" s="29"/>
+      <c r="E74" s="30"/>
       <c r="F74" s="17" t="s">
         <v>204</v>
       </c>
@@ -2539,75 +2555,77 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="22"/>
-      <c r="B75" s="33"/>
-      <c r="C75" s="36"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="F75" s="19" t="s">
-        <v>89</v>
+      <c r="B75" s="29"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>214</v>
       </c>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="22"/>
-      <c r="B76" s="33"/>
-      <c r="C76" s="36"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="34"/>
-      <c r="F76" s="18" t="s">
+      <c r="B76" s="29"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F76" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="G76" s="7"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="22"/>
+      <c r="B77" s="29"/>
+      <c r="C77" s="38"/>
+      <c r="D77" s="29"/>
+      <c r="E77" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="F77" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="7"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="22"/>
+      <c r="B78" s="29"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="30"/>
+      <c r="F78" s="18" t="s">
         <v>209</v>
       </c>
-      <c r="G76" s="7"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="G78" s="7"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="22">
         <v>64</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="36"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="38" t="s">
+      <c r="B79" s="29"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="27" t="s">
         <v>200</v>
       </c>
-      <c r="F77" s="18" t="s">
+      <c r="F79" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="G77" s="7"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="G79" s="7"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="22">
         <v>65</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="36"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="38"/>
-      <c r="F78" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G78" s="7"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="22"/>
-      <c r="B79" s="33"/>
-      <c r="C79" s="36"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="32" t="s">
-        <v>205</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="G79" s="7"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="22"/>
-      <c r="B80" s="33"/>
-      <c r="C80" s="36"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="34"/>
+      <c r="B80" s="29"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="27"/>
       <c r="F80" s="13" t="s">
         <v>206</v>
       </c>
@@ -2615,716 +2633,772 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="22"/>
-      <c r="B81" s="33"/>
-      <c r="C81" s="36"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F81" s="13" t="s">
-        <v>206</v>
+      <c r="B81" s="29"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="29"/>
+      <c r="E81" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>207</v>
       </c>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="22"/>
-      <c r="B82" s="33"/>
-      <c r="C82" s="36"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="33"/>
+      <c r="B82" s="29"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="29"/>
+      <c r="E82" s="30"/>
       <c r="F82" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G82" s="7"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="22"/>
+      <c r="B83" s="29"/>
+      <c r="C83" s="38"/>
+      <c r="D83" s="29"/>
+      <c r="E83" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="G83" s="7"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="22"/>
+      <c r="B84" s="29"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="13" t="s">
         <v>208</v>
-      </c>
-      <c r="G82" s="7"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
-        <v>66</v>
-      </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="36"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="7"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
-        <v>67</v>
-      </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="36"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>159</v>
       </c>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="22">
-        <v>69</v>
-      </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="36"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33" t="s">
-        <v>210</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>158</v>
+        <v>66</v>
+      </c>
+      <c r="B85" s="29"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="29"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
-        <v>70</v>
-      </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="36"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="B86" s="29"/>
+      <c r="C86" s="38"/>
+      <c r="D86" s="29"/>
+      <c r="E86" s="7" t="s">
+        <v>201</v>
+      </c>
       <c r="F86" s="18" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="22">
-        <v>76</v>
-      </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="36"/>
-      <c r="D87" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E87" s="38" t="s">
-        <v>193</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>145</v>
+        <v>69</v>
+      </c>
+      <c r="B87" s="29"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="29"/>
+      <c r="E87" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="22">
+        <v>70</v>
+      </c>
+      <c r="B88" s="29"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="29"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="G88" s="7"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="22">
+        <v>76</v>
+      </c>
+      <c r="B89" s="29"/>
+      <c r="C89" s="38"/>
+      <c r="D89" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E89" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G89" s="7"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="22">
         <v>77</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="36"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="38"/>
-      <c r="F88" s="3" t="s">
+      <c r="B90" s="29"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="27"/>
+      <c r="F90" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="G88" s="7"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="22"/>
-      <c r="B89" s="33"/>
-      <c r="C89" s="36"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="7" t="s">
+      <c r="G90" s="7"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="22"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="29"/>
+      <c r="E91" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F91" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="G89" s="7"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A90" s="22"/>
-      <c r="B90" s="33"/>
-      <c r="C90" s="36"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="7" t="s">
+      <c r="G91" s="7"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="22"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="29"/>
+      <c r="E92" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F92" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="G90" s="7"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="22">
-        <v>78</v>
-      </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="36"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="22">
-        <v>79</v>
-      </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="36"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>125</v>
       </c>
       <c r="G92" s="7"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="22">
-        <v>80</v>
-      </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="36"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="B93" s="29"/>
+      <c r="C93" s="38"/>
+      <c r="D93" s="29"/>
+      <c r="E93" s="7" t="s">
+        <v>198</v>
+      </c>
       <c r="F93" s="3" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="G93" s="7"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="22">
-        <v>81</v>
-      </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="36"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="3" t="s">
-        <v>146</v>
+        <v>79</v>
+      </c>
+      <c r="B94" s="29"/>
+      <c r="C94" s="38"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
-        <v>82</v>
-      </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="36"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="6" t="s">
-        <v>90</v>
+        <v>80</v>
+      </c>
+      <c r="B95" s="29"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="3" t="s">
+        <v>126</v>
       </c>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="22">
-        <v>83</v>
-      </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="36"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="7" t="s">
-        <v>24</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B96" s="29"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="29"/>
+      <c r="E96" s="29"/>
       <c r="F96" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
-        <v>84</v>
-      </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="36"/>
-      <c r="D97" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E97" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>189</v>
+        <v>82</v>
+      </c>
+      <c r="B97" s="29"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="29"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="6" t="s">
+        <v>90</v>
       </c>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="22">
-        <v>85</v>
-      </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="36"/>
-      <c r="D98" s="30"/>
-      <c r="E98" s="16" t="s">
-        <v>186</v>
+        <v>83</v>
+      </c>
+      <c r="B98" s="29"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="29"/>
+      <c r="E98" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="22">
-        <v>86</v>
-      </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="36"/>
-      <c r="D99" s="30"/>
+        <v>84</v>
+      </c>
+      <c r="B99" s="29"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="31" t="s">
+        <v>62</v>
+      </c>
       <c r="E99" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="22">
-        <v>87</v>
-      </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="36"/>
-      <c r="D100" s="30"/>
+        <v>85</v>
+      </c>
+      <c r="B100" s="29"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="33"/>
       <c r="E100" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F100" s="19" t="s">
-        <v>75</v>
+        <v>186</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="22">
-        <v>88</v>
-      </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="36"/>
-      <c r="D101" s="30"/>
-      <c r="E101" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="F101" s="18" t="s">
-        <v>109</v>
+        <v>86</v>
+      </c>
+      <c r="B101" s="29"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>190</v>
       </c>
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="22">
-        <v>89</v>
-      </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="36"/>
-      <c r="D102" s="30"/>
-      <c r="E102" s="30"/>
-      <c r="F102" s="20" t="s">
-        <v>161</v>
+        <v>87</v>
+      </c>
+      <c r="B102" s="29"/>
+      <c r="C102" s="38"/>
+      <c r="D102" s="33"/>
+      <c r="E102" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F102" s="19" t="s">
+        <v>75</v>
       </c>
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="22">
-        <v>90</v>
-      </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="36"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="20" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="B103" s="29"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="33"/>
+      <c r="E103" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>109</v>
       </c>
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="22">
-        <v>91</v>
-      </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="37"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
+        <v>89</v>
+      </c>
+      <c r="B104" s="29"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="33"/>
+      <c r="E104" s="33"/>
       <c r="F104" s="20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="22">
-        <v>92</v>
-      </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E105" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>112</v>
+        <v>90</v>
+      </c>
+      <c r="B105" s="29"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="33"/>
+      <c r="E105" s="33"/>
+      <c r="F105" s="20" t="s">
+        <v>74</v>
       </c>
       <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="22">
-        <v>93</v>
-      </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="33"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
-      <c r="F106" s="3" t="s">
-        <v>107</v>
+        <v>91</v>
+      </c>
+      <c r="B106" s="29"/>
+      <c r="C106" s="39"/>
+      <c r="D106" s="32"/>
+      <c r="E106" s="32"/>
+      <c r="F106" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="22">
-        <v>94</v>
-      </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="33"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+        <v>92</v>
+      </c>
+      <c r="B107" s="29"/>
+      <c r="C107" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D107" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="E107" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>112</v>
+      </c>
       <c r="G107" s="7"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="22">
-        <v>95</v>
-      </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="33"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>113</v>
+        <v>93</v>
+      </c>
+      <c r="B108" s="29"/>
+      <c r="C108" s="29"/>
+      <c r="D108" s="29"/>
+      <c r="E108" s="29"/>
+      <c r="F108" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="22">
-        <v>96</v>
-      </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="33"/>
-      <c r="D109" s="34"/>
-      <c r="E109" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
       <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="22">
-        <v>97</v>
-      </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="33"/>
-      <c r="D110" s="32" t="s">
-        <v>36</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
       <c r="E110" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>47</v>
+        <v>111</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>113</v>
       </c>
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="22">
-        <v>98</v>
-      </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="33"/>
-      <c r="D111" s="33"/>
+        <v>96</v>
+      </c>
+      <c r="B111" s="29"/>
+      <c r="C111" s="29"/>
+      <c r="D111" s="30"/>
       <c r="E111" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>91</v>
+        <v>114</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>115</v>
       </c>
       <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="22">
-        <v>99</v>
-      </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="33"/>
-      <c r="D112" s="34"/>
+        <v>97</v>
+      </c>
+      <c r="B112" s="29"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="28" t="s">
+        <v>36</v>
+      </c>
       <c r="E112" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="22">
-        <v>100</v>
-      </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="33"/>
-      <c r="D113" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E113" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="F113" s="18" t="s">
-        <v>162</v>
+        <v>98</v>
+      </c>
+      <c r="B113" s="29"/>
+      <c r="C113" s="29"/>
+      <c r="D113" s="29"/>
+      <c r="E113" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>91</v>
       </c>
       <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="22">
-        <v>101</v>
-      </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="33"/>
-      <c r="D114" s="33"/>
-      <c r="E114" s="33"/>
-      <c r="F114" s="18" t="s">
-        <v>163</v>
+        <v>99</v>
+      </c>
+      <c r="B114" s="29"/>
+      <c r="C114" s="29"/>
+      <c r="D114" s="30"/>
+      <c r="E114" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="22">
-        <v>102</v>
-      </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="33"/>
-      <c r="D115" s="33"/>
-      <c r="E115" s="34"/>
+        <v>100</v>
+      </c>
+      <c r="B115" s="29"/>
+      <c r="C115" s="29"/>
+      <c r="D115" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115" s="28" t="s">
+        <v>41</v>
+      </c>
       <c r="F115" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="22">
-        <v>103</v>
-      </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="33"/>
-      <c r="D116" s="33"/>
-      <c r="E116" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="B116" s="29"/>
+      <c r="C116" s="29"/>
+      <c r="D116" s="29"/>
+      <c r="E116" s="29"/>
+      <c r="F116" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="G116" s="7"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="22">
-        <v>104</v>
-      </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="33"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>93</v>
+        <v>102</v>
+      </c>
+      <c r="B117" s="29"/>
+      <c r="C117" s="29"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="30"/>
+      <c r="F117" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="G117" s="7"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="22">
-        <v>105</v>
-      </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="33"/>
-      <c r="D118" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="E118" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="F118" s="9" t="s">
-        <v>94</v>
+        <v>103</v>
+      </c>
+      <c r="B118" s="29"/>
+      <c r="C118" s="29"/>
+      <c r="D118" s="29"/>
+      <c r="E118" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G118" s="7"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="22">
-        <v>106</v>
-      </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="33"/>
-      <c r="D119" s="33"/>
-      <c r="E119" s="34"/>
-      <c r="F119" s="9" t="s">
-        <v>165</v>
+        <v>104</v>
+      </c>
+      <c r="B119" s="29"/>
+      <c r="C119" s="29"/>
+      <c r="D119" s="30"/>
+      <c r="E119" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="G119" s="7"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="22">
-        <v>107</v>
-      </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="33"/>
-      <c r="D120" s="33"/>
-      <c r="E120" s="7" t="s">
-        <v>45</v>
+        <v>105</v>
+      </c>
+      <c r="B120" s="29"/>
+      <c r="C120" s="29"/>
+      <c r="D120" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>116</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
-        <v>108</v>
-      </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="33"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="7" t="s">
-        <v>46</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="B121" s="29"/>
+      <c r="C121" s="29"/>
+      <c r="D121" s="29"/>
+      <c r="E121" s="30"/>
       <c r="F121" s="9" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="22">
-        <v>109</v>
-      </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E122" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>97</v>
+        <v>107</v>
+      </c>
+      <c r="B122" s="29"/>
+      <c r="C122" s="29"/>
+      <c r="D122" s="29"/>
+      <c r="E122" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>95</v>
       </c>
       <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="22">
-        <v>110</v>
-      </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="21" t="s">
-        <v>55</v>
+        <v>108</v>
+      </c>
+      <c r="B123" s="29"/>
+      <c r="C123" s="29"/>
+      <c r="D123" s="30"/>
+      <c r="E123" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="F123" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="22">
-        <v>111</v>
-      </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="33"/>
+        <v>109</v>
+      </c>
+      <c r="B124" s="29"/>
+      <c r="C124" s="29"/>
+      <c r="D124" s="28" t="s">
+        <v>49</v>
+      </c>
       <c r="E124" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="F124" s="9" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="22">
-        <v>112</v>
-      </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="34"/>
+        <v>110</v>
+      </c>
+      <c r="B125" s="29"/>
+      <c r="C125" s="29"/>
+      <c r="D125" s="29"/>
       <c r="E125" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F125" s="3" t="s">
-        <v>99</v>
+        <v>55</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="22">
-        <v>113</v>
-      </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>52</v>
+        <v>111</v>
+      </c>
+      <c r="B126" s="29"/>
+      <c r="C126" s="29"/>
+      <c r="D126" s="29"/>
+      <c r="E126" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="G126" s="7"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="22">
-        <v>114</v>
-      </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="33"/>
-      <c r="E127" s="34"/>
-      <c r="F127" s="9" t="s">
-        <v>21</v>
+        <v>112</v>
+      </c>
+      <c r="B127" s="29"/>
+      <c r="C127" s="29"/>
+      <c r="D127" s="30"/>
+      <c r="E127" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>99</v>
       </c>
       <c r="G127" s="7"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="22">
-        <v>115</v>
-      </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F128" s="9" t="s">
-        <v>100</v>
+        <v>113</v>
+      </c>
+      <c r="B128" s="29"/>
+      <c r="C128" s="29"/>
+      <c r="D128" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="G128" s="7"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="22">
+        <v>114</v>
+      </c>
+      <c r="B129" s="29"/>
+      <c r="C129" s="29"/>
+      <c r="D129" s="29"/>
+      <c r="E129" s="30"/>
+      <c r="F129" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G129" s="7"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" s="22">
+        <v>115</v>
+      </c>
+      <c r="B130" s="29"/>
+      <c r="C130" s="29"/>
+      <c r="D130" s="29"/>
+      <c r="E130" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G130" s="7"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" s="22">
         <v>116</v>
       </c>
-      <c r="B129" s="34"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="34"/>
-      <c r="E129" s="7" t="s">
+      <c r="B131" s="30"/>
+      <c r="C131" s="30"/>
+      <c r="D131" s="30"/>
+      <c r="E131" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F131" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="G129" s="7"/>
+      <c r="G131" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D115:D119"/>
+    <mergeCell ref="D120:D123"/>
+    <mergeCell ref="D124:D127"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E42"/>
+    <mergeCell ref="E72:E74"/>
+    <mergeCell ref="E83:E85"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E103:E106"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E115:E117"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="E107:E109"/>
+    <mergeCell ref="D107:D111"/>
+    <mergeCell ref="D99:D106"/>
+    <mergeCell ref="E128:E129"/>
+    <mergeCell ref="D64:D88"/>
+    <mergeCell ref="E120:E121"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D89:D98"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="D128:D131"/>
+    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="E66:E71"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="D35:D55"/>
+    <mergeCell ref="E61:E63"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D17:D26"/>
     <mergeCell ref="D56:D63"/>
@@ -3333,45 +3407,13 @@
     <mergeCell ref="E29:E30"/>
     <mergeCell ref="E31:E33"/>
     <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E126:E127"/>
-    <mergeCell ref="D64:D86"/>
-    <mergeCell ref="E118:E119"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D87:D96"/>
-    <mergeCell ref="E92:E95"/>
-    <mergeCell ref="D126:D129"/>
-    <mergeCell ref="D110:D112"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="D35:D55"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="D113:D117"/>
-    <mergeCell ref="D118:D121"/>
-    <mergeCell ref="D122:D125"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="E75:E76"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="D12:D16"/>
     <mergeCell ref="D4:D11"/>
-    <mergeCell ref="E101:E104"/>
-    <mergeCell ref="B4:B129"/>
-    <mergeCell ref="C4:C104"/>
+    <mergeCell ref="B4:B131"/>
+    <mergeCell ref="C4:C106"/>
     <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E113:E115"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="C105:C129"/>
-    <mergeCell ref="E105:E107"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="D97:D104"/>
+    <mergeCell ref="C107:C131"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항.xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business\Eclipse\com.github.ecommerce7th.saturn\resource\30.analysis\320.environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06C42D4B-42D2-4C32-BE61-879A1A018C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$148</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,18 +94,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이 페이지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마이 페이지에서 현재 내가 구매한 상품에 대하여 취소/반품/교환이 가능해야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>마이 페이지에서 내가 취소/반품/교환한 상품들에 대하여 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 탈퇴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메일 발송</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -231,10 +218,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전체 구매자에게 개별 또는 일괄적으로 메일을 발송할 수 있도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>통계 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -255,10 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주문 상태 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맞춤 건강 통계 분석</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -283,10 +262,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>맞춤형 건강 분석</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>맞춤형 건강 서비스</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,18 +402,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품들의 취소/교환/환불 통계로 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연령별 및 성별로 구매한 상품을 통계로 확인 할수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문 수량 및 매출을 통계로 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>자동화 업무 구현으로 구매자들이 구매한 상품에 대하여 배송 상태를 준비 중에서 배송 시작으로 바꾸도록 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -476,9 +439,6 @@
   </si>
   <si>
     <t>로그인 세션이 없을 시 로그인 페이지로 강제 이동한다.</t>
-  </si>
-  <si>
-    <t>로그인 세션이 없을 시 로그인 페이지로 강제 이동한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -512,18 +472,6 @@
     <t xml:space="preserve">등록된 게시글이 10개 초과인 경우 다음 목록으로 이동하여 모든 게시글을 볼 수 있어야 한다. </t>
   </si>
   <si>
-    <t>중복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이용 조건</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구매 이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 정보 확인/수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -540,10 +488,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>장바구니 페이지에서 주문하기 버튼 클릭 시 결제 페이지로 이동할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>구매(결제)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -589,10 +533,6 @@
   </si>
   <si>
     <t>이메일 중복 확인이 완료되면 이메일 값이 고정되며 변경할 수 없어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지에서 구매한 상품들에 대한 개별 및 총합 포인트의 적립을 확인할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -621,22 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>리뷰 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이 페이지에서 내가 작성한 리뷰와 평점을 조회할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에서 내가 장바구니에 담은 각 상품들을 이미지, 상품명, 수량, 가격, 포인트, 총합 포인트 및 총합 가격을 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 담긴 모든 상품들의 수량과 가격 및 포인트를 집계하여 하단에 최종 값을 표시할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>장바구니에 담긴 상품 이미지를 클릭하여 해당 상품의 상세 페이지로 이동할 수 있어야 한다.</t>
   </si>
   <si>
@@ -655,14 +579,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 게시판에서 베스트 상품이 상단에 보이도록 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 게시판에서 해당 상품의 별점을 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 게시판에서 상품을 판매인기순, 낮은가격순, 높은가격순, 등록일순, 브랜드, 제품타입별로 정렬할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -726,10 +642,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사이트 상단의 돋보기 아이콘을 눌러 카테고리별 및 브랜드, 제품타입으로 상품 검색을 진행할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>공통 메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -774,7 +686,330 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인에서 공통 메뉴와 별개로 기능별, 성분별, 대상별 상품 게시판으로 이동할 수 있어야 한다.</t>
+    <t>메인에서 20개의 신상품을 확인 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새소식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분 사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트를 방문한 구매자들을 대상으로 유용한 건강 상식 및 정보들을 리스트 업 형태로 제목을 누르면 상세 내용이 나와야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트와 관련된 각종 소식들을 게시판으로 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트에서 판매중인 건강기능식품에 포함된 성분들에 관한 정보를 제공할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트 이력</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지에서 나의 포인트 이력을 조회할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 내역</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 수량 조절</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 담긴 개별 상품들에 대해 수량을 조절하여 총합 포인트 및 총합 가격을 변경할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니에 담긴 개별 상품들을 전체 선택하거나 개별 선택하여 구매 및 총합 포인트와 총합 가격을 변경할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 상품 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품Q&amp;A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품Q&amp;A를 작성 및 수정할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰 작성시 평점을 등록할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 담기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수량을 조절하여 장바구니에 담기 기능이 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바로 구매 버튼 클릭 시 결제 페이지로 이동할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세정보에서 찜을 등록하거나 취소할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상세 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할인율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 최종 판매가에 포인트 적립률을 적용하여 구매자에 누적되게 해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품의 원가에 할인율을 적용하여 할인가를 적용할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>판매된 상품들중 인기 상품을 통계로 확인 할수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 수량 및 매출을과 이익 및 순이익을 통계로 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성별 및 연령별 통계 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원들의 성별 및 연령별을 통계로 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 게시판에서 인기 상품이 상단에 보이도록 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 게시판에서 해당 상품의 평점과 평점 개수를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰를 작성 및 수정과 삭제를 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 리뷰 작성시 여러 개의 이미지를 등록할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지를 변경할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매하는 상품명과 수량 및 가격과 적립되는 포인트를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자는 상품의 취소, 교환, 환불, 배송 등의 상태를 변경할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 건강 분석</t>
+  </si>
+  <si>
+    <t>맞춤형 건강 정보 설문조사 결과 추천 받은 건강기능식품의 상세 정보를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 건강 정보 설문조사 결과 추천 받은 건강기능식품을 개별 장바구니 담기 및 전체 장바구니 담기가 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장바구니 페이지 및 상품 상세 정보에서 결제하기 버튼 클릭 시 결제 페이지로 이동할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품들의 수량과 가격 및 포인트를 집계하여 하단에 최종 값을 표시할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 배송지를 변경할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 배송지를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포인트를 사용할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새소식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분 사전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>건강 정보에 대한 등록, 수정, 삭제 등의 관리가 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>성분 사전에 대한 등록, 수정, 삭제 등의 관리가 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소개에 대한 등록, 수정, 삭제 등의 관리가 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>새소식에 대한 등록, 수정, 삭제 등의 관리가 가능해야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관 상품들의 상품명, 평점, 원가, 판매가를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사내 정보를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재까지 문의한 내역들에 대하여 수정할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문의를 등록할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품후기 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 내가 작성한 후기와 평점을 조회할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 내가 작성한 후기와 평점을 수정 및 삭제할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 현재 내가 구매한 상품에 대하여 배송정보를 확인할 수 있어야가능해 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 구매한 상품들에 대한 개별 및 총합 포인트의 적립을 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 현재 나의 취소/반품/교환 상품들에 대하여 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 현재 내가 구매한 상품에 대하여 주문 정보 삭제를 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 나의 배송지를 최대 3개까지 등록할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 나의 기본 배송지를 설정하거나 취소할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 나의 배송지를 삭제 및 수정할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송 요청사항을 기입할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞춤형 건강 분석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 맞춤형 건강 분석의 결과를 확인할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지에서 맞춤형 건강 분석을 다시 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인에서 모든 게시판으로 이동할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 상품</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -782,138 +1017,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>메인에서 20개의 신상품을 확인 할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새소식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>성분 사전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트를 방문한 구매자들을 대상으로 유용한 건강 상식 및 정보들을 리스트 업 형태로 제목을 누르면 상세 내용이 나와야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트와 관련된 각종 소식들을 게시판으로 확인할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사이트에서 판매중인 건강기능식품에 포함된 성분들에 관한 정보를 제공할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트 이력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>마이페이지에서 나의 포인트 이력을 조회할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 내역</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 수량 조절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 담긴 개별 상품들에 대해 수량을 조절하여 총합 포인트 및 총합 가격을 변경할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니에 담긴 개별 상품들을 전체 선택하거나 개별 선택하여 구매 및 총합 포인트와 총합 가격을 변경할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 상품 취소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 리뷰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품Q&amp;A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관 상품</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품Q&amp;A를 작성 및 수정할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 리뷰를 작성 및 수정할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품 리뷰 작성시 평점을 등록할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장바구니 담기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 세션이 없을 시 경고창을 띄운다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>수량을 조절하여 장바구니에 담기 기능이 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바로 구매 버튼 클릭 시 결제 페이지로 이동할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세정보에서 찜을 등록하거나 취소할 수 있어야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상세 정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>포인트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>할인율</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품의 최종 판매가에 포인트 적립률을 적용하여 구매자에 누적되게 해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품의 원가에 할인율을 적용하여 할인가를 적용할 수 있어야 한다.</t>
+    <t>메인에서 20개의 인기 상품을 확인 할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트 상단의 검색창에서 카테고리별 및 브랜드, 제품타입으로 상품 검색을 진행할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1079,7 +1194,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1158,30 +1273,48 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1197,8 +1330,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1488,11 +1624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G131"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="A118" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1506,15 +1642,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="A1" s="39" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1539,7 +1675,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>4</v>
@@ -1552,20 +1688,20 @@
       <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>73</v>
+      <c r="C4" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>67</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>167</v>
+        <v>146</v>
       </c>
       <c r="G4" s="23"/>
     </row>
@@ -1573,14 +1709,14 @@
       <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="36"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G5" s="23"/>
     </row>
@@ -1588,14 +1724,14 @@
       <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="36"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="42"/>
       <c r="E6" s="23" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G6" s="23"/>
     </row>
@@ -1603,14 +1739,14 @@
       <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="36"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="23" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="F7" s="24" t="s">
-        <v>170</v>
+        <v>244</v>
       </c>
       <c r="G7" s="23"/>
     </row>
@@ -1618,14 +1754,14 @@
       <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="34" t="s">
-        <v>171</v>
+      <c r="B8" s="33"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="40" t="s">
+        <v>149</v>
       </c>
       <c r="F8" s="24" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G8" s="23"/>
     </row>
@@ -1633,12 +1769,12 @@
       <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="29"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="41"/>
       <c r="F9" s="25" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G9" s="23"/>
     </row>
@@ -1646,12 +1782,12 @@
       <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="41"/>
       <c r="F10" s="3" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G10" s="23"/>
     </row>
@@ -1659,12 +1795,12 @@
       <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="41"/>
       <c r="F11" s="3" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="G11" s="23"/>
     </row>
@@ -1672,16 +1808,16 @@
       <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="36" t="s">
-        <v>166</v>
+      <c r="B12" s="33"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="42" t="s">
+        <v>145</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="F12" s="24" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="G12" s="23"/>
     </row>
@@ -1689,14 +1825,14 @@
       <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="36"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="42"/>
       <c r="E13" s="23" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F13" s="24" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="G13" s="23"/>
     </row>
@@ -1704,14 +1840,14 @@
       <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="29"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="36"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="42"/>
       <c r="E14" s="23" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F14" s="24" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="G14" s="23"/>
     </row>
@@ -1719,29 +1855,29 @@
       <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="23" t="s">
-        <v>183</v>
+      <c r="B15" s="33"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="31" t="s">
+        <v>242</v>
       </c>
       <c r="F15" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="G15" s="23"/>
+        <v>160</v>
+      </c>
+      <c r="G15" s="31"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="36"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="42"/>
       <c r="E16" s="23" t="s">
-        <v>150</v>
+        <v>241</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="G16" s="23"/>
     </row>
@@ -1749,31 +1885,31 @@
       <c r="A17" s="22">
         <v>14</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="7"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="23" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>240</v>
+      </c>
+      <c r="G17" s="23"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="22">
         <v>15</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="27"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="38" t="s">
+        <v>6</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>129</v>
+        <v>123</v>
+      </c>
+      <c r="F18" t="s">
+        <v>122</v>
       </c>
       <c r="G18" s="7"/>
     </row>
@@ -1781,14 +1917,14 @@
       <c r="A19" s="22">
         <v>16</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27" t="s">
-        <v>30</v>
+      <c r="B19" s="33"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7"/>
     </row>
@@ -1796,12 +1932,14 @@
       <c r="A20" s="22">
         <v>17</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" t="s">
-        <v>138</v>
+      <c r="B20" s="33"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="G20" s="7"/>
     </row>
@@ -1809,14 +1947,12 @@
       <c r="A21" s="22">
         <v>18</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>104</v>
+      <c r="B21" s="33"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" t="s">
+        <v>124</v>
       </c>
       <c r="G21" s="7"/>
     </row>
@@ -1824,14 +1960,14 @@
       <c r="A22" s="22">
         <v>19</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="27"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F22" t="s">
-        <v>132</v>
+        <v>94</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -1839,14 +1975,14 @@
       <c r="A23" s="22">
         <v>20</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>8</v>
+      <c r="B23" s="33"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -1854,12 +1990,14 @@
       <c r="A24" s="22">
         <v>21</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="38"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="14" t="s">
-        <v>76</v>
+      <c r="B24" s="33"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -1867,14 +2005,12 @@
       <c r="A25" s="22">
         <v>22</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B25" s="33"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="14" t="s">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="G25" s="7"/>
     </row>
@@ -1882,44 +2018,46 @@
       <c r="A26" s="22">
         <v>23</v>
       </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="27"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="38"/>
       <c r="E26" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>135</v>
+        <v>23</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>119</v>
       </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>107</v>
+      <c r="A27" s="22">
+        <v>24</v>
+      </c>
+      <c r="B27" s="33"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>121</v>
       </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="22">
-        <v>24</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="29"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="33" t="s">
+        <v>9</v>
+      </c>
       <c r="E28" s="12" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -1927,14 +2065,14 @@
       <c r="A29" s="22">
         <v>26</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="28" t="s">
-        <v>10</v>
+      <c r="B29" s="33"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="G29" s="7"/>
     </row>
@@ -1942,12 +2080,14 @@
       <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="29"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="30"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="32" t="s">
+        <v>10</v>
+      </c>
       <c r="F30" s="3" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="G30" s="7"/>
     </row>
@@ -1955,14 +2095,12 @@
       <c r="A31" s="22">
         <v>28</v>
       </c>
-      <c r="B31" s="29"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="28" t="s">
-        <v>13</v>
-      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="3" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="G31" s="7"/>
     </row>
@@ -1970,12 +2108,14 @@
       <c r="A32" s="22">
         <v>29</v>
       </c>
-      <c r="B32" s="29"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="32" t="s">
+        <v>13</v>
+      </c>
       <c r="F32" s="3" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G32" s="7"/>
     </row>
@@ -1983,12 +2123,12 @@
       <c r="A33" s="22">
         <v>30</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="8" t="s">
-        <v>78</v>
+      <c r="B33" s="33"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="G33" s="7"/>
     </row>
@@ -1996,14 +2136,12 @@
       <c r="A34" s="22">
         <v>31</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>80</v>
+      <c r="B34" s="33"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="G34" s="7"/>
     </row>
@@ -2011,16 +2149,14 @@
       <c r="A35" s="22">
         <v>32</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>120</v>
+      <c r="B35" s="33"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>109</v>
+        <v>74</v>
       </c>
       <c r="G35" s="7"/>
     </row>
@@ -2028,14 +2164,14 @@
       <c r="A36" s="22">
         <v>33</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="28" t="s">
-        <v>122</v>
+      <c r="B36" s="33"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="32" t="s">
+        <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="G36" s="7"/>
     </row>
@@ -2043,12 +2179,12 @@
       <c r="A37" s="22">
         <v>34</v>
       </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G37" s="7"/>
     </row>
@@ -2056,14 +2192,14 @@
       <c r="A38" s="22">
         <v>35</v>
       </c>
-      <c r="B38" s="29"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="29"/>
-      <c r="E38" s="28" t="s">
-        <v>121</v>
+      <c r="B38" s="33"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="32" t="s">
+        <v>226</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G38" s="7"/>
     </row>
@@ -2071,38 +2207,38 @@
       <c r="A39" s="22">
         <v>36</v>
       </c>
-      <c r="B39" s="29"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
       <c r="F39" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="7"/>
+        <v>230</v>
+      </c>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="22">
         <v>37</v>
       </c>
-      <c r="B40" s="29"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
       <c r="F40" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="G40" s="7"/>
+        <v>227</v>
+      </c>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="22">
         <v>38</v>
       </c>
-      <c r="B41" s="29"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
       <c r="F41" s="3" t="s">
-        <v>70</v>
+        <v>229</v>
       </c>
       <c r="G41" s="7"/>
     </row>
@@ -2110,12 +2246,12 @@
       <c r="A42" s="22">
         <v>39</v>
       </c>
-      <c r="B42" s="29"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="29"/>
-      <c r="E42" s="30"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
       <c r="F42" s="3" t="s">
-        <v>66</v>
+        <v>228</v>
       </c>
       <c r="G42" s="7"/>
     </row>
@@ -2123,14 +2259,12 @@
       <c r="A43" s="22">
         <v>40</v>
       </c>
-      <c r="B43" s="29"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="29"/>
-      <c r="E43" s="29" t="s">
-        <v>69</v>
-      </c>
+      <c r="B43" s="33"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="3" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="G43" s="7"/>
     </row>
@@ -2138,1282 +2272,1560 @@
       <c r="A44" s="22">
         <v>41</v>
       </c>
-      <c r="B44" s="29"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="29"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="8" t="s">
-        <v>79</v>
+      <c r="B44" s="33"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="G44" s="7"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="29"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>192</v>
+      <c r="A45" s="22">
+        <v>42</v>
+      </c>
+      <c r="B45" s="33"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="G45" s="7"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="22">
-        <v>42</v>
-      </c>
-      <c r="B46" s="29"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="10" t="s">
-        <v>143</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B46" s="33"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="8" t="s">
-        <v>144</v>
+        <v>73</v>
       </c>
       <c r="G46" s="7"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="22">
-        <v>43</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G47" s="7"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="33"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="22">
-        <v>44</v>
-      </c>
-      <c r="B48" s="29"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="29"/>
-      <c r="E48" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="33"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="22">
-        <v>45</v>
-      </c>
-      <c r="B49" s="29"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="29"/>
-      <c r="E49" s="32"/>
-      <c r="F49" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G49" s="7"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="33"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="22">
-        <v>46</v>
-      </c>
-      <c r="B50" s="29"/>
-      <c r="C50" s="38"/>
-      <c r="D50" s="29"/>
-      <c r="E50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G50" s="7"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="33"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="22">
-        <v>47</v>
-      </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="38"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="31" t="s">
-        <v>64</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="B51" s="33"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="34"/>
       <c r="F51" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="G51" s="7"/>
+        <v>238</v>
+      </c>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="22">
-        <v>48</v>
-      </c>
-      <c r="B52" s="29"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="29"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="3" t="s">
-        <v>65</v>
+        <v>49</v>
+      </c>
+      <c r="B52" s="33"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>168</v>
       </c>
       <c r="G52" s="7"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="22">
-        <v>49</v>
-      </c>
-      <c r="B53" s="29"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="29"/>
-      <c r="E53" s="32"/>
-      <c r="F53" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="7"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="33"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="22">
-        <v>50</v>
-      </c>
-      <c r="B54" s="29"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="29"/>
-      <c r="E54" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>124</v>
+        <v>51</v>
+      </c>
+      <c r="B54" s="33"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="8" t="s">
+        <v>224</v>
       </c>
       <c r="G54" s="7"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="22">
-        <v>51</v>
-      </c>
-      <c r="B55" s="29"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="32"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="33"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="F55" s="3" t="s">
-        <v>140</v>
+        <v>77</v>
       </c>
       <c r="G55" s="7"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="22">
-        <v>52</v>
-      </c>
-      <c r="B56" s="29"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>109</v>
+        <v>53</v>
+      </c>
+      <c r="B56" s="33"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="G56" s="7"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="22">
-        <v>53</v>
-      </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="38"/>
-      <c r="D57" s="29"/>
-      <c r="E57" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="33"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="37"/>
       <c r="F57" s="3" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G57" s="7"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="22">
-        <v>54</v>
-      </c>
-      <c r="B58" s="29"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="29"/>
-      <c r="E58" s="30"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="33"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="32" t="s">
+        <v>57</v>
+      </c>
       <c r="F58" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G58" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="G58" s="26"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="22">
-        <v>55</v>
-      </c>
-      <c r="B59" s="29"/>
-      <c r="C59" s="38"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="10" t="s">
-        <v>71</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="B59" s="33"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
       <c r="F59" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G59" s="7"/>
+        <v>221</v>
+      </c>
+      <c r="G59" s="26"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="22">
-        <v>56</v>
-      </c>
-      <c r="B60" s="29"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="29"/>
-      <c r="E60" s="12" t="s">
-        <v>72</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B60" s="33"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="34"/>
       <c r="F60" s="3" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="G60" s="7"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="22">
-        <v>57</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="38"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>117</v>
+        <v>58</v>
+      </c>
+      <c r="B61" s="33"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>126</v>
       </c>
       <c r="G61" s="7"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="22">
-        <v>58</v>
-      </c>
-      <c r="B62" s="29"/>
-      <c r="C62" s="38"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="29"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="33"/>
+      <c r="C62" s="44"/>
+      <c r="D62" s="33"/>
+      <c r="E62" s="36"/>
       <c r="F62" s="3" t="s">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="G62" s="7"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="22">
-        <v>59</v>
-      </c>
-      <c r="B63" s="29"/>
-      <c r="C63" s="38"/>
-      <c r="D63" s="30"/>
-      <c r="E63" s="30"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="33"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="37"/>
       <c r="F63" s="3" t="s">
-        <v>87</v>
+        <v>127</v>
       </c>
       <c r="G63" s="7"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="22">
-        <v>60</v>
-      </c>
-      <c r="B64" s="29"/>
-      <c r="C64" s="38"/>
-      <c r="D64" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>27</v>
+        <v>61</v>
+      </c>
+      <c r="B64" s="33"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="33"/>
+      <c r="E64" s="35" t="s">
+        <v>110</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>149</v>
+        <v>111</v>
       </c>
       <c r="G64" s="7"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="22">
-        <v>61</v>
-      </c>
-      <c r="B65" s="29"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="29"/>
-      <c r="E65" s="29"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="33"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="37"/>
       <c r="F65" s="3" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="G65" s="7"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="29"/>
-      <c r="C66" s="38"/>
-      <c r="D66" s="29"/>
-      <c r="E66" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G66" s="7"/>
+      <c r="A66" s="22">
+        <v>63</v>
+      </c>
+      <c r="B66" s="33"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" s="26"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="29"/>
-      <c r="C67" s="38"/>
-      <c r="D67" s="29"/>
-      <c r="E67" s="29"/>
-      <c r="F67" s="17" t="s">
-        <v>152</v>
+      <c r="A67" s="22">
+        <v>64</v>
+      </c>
+      <c r="B67" s="33"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="29"/>
-      <c r="C68" s="38"/>
-      <c r="D68" s="29"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="17" t="s">
-        <v>156</v>
+      <c r="A68" s="22">
+        <v>65</v>
+      </c>
+      <c r="B68" s="33"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="33"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="29"/>
-      <c r="C69" s="38"/>
-      <c r="D69" s="29"/>
-      <c r="E69" s="29"/>
-      <c r="F69" s="17" t="s">
-        <v>153</v>
+      <c r="A69" s="22">
+        <v>66</v>
+      </c>
+      <c r="B69" s="33"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="33"/>
+      <c r="E69" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G69" s="7"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="29"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="29"/>
-      <c r="F70" s="17" t="s">
-        <v>155</v>
+      <c r="A70" s="22">
+        <v>67</v>
+      </c>
+      <c r="B70" s="33"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="33"/>
+      <c r="E70" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="G70" s="7"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="29"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="29"/>
-      <c r="E71" s="29"/>
-      <c r="F71" s="9" t="s">
-        <v>154</v>
+      <c r="A71" s="22">
+        <v>68</v>
+      </c>
+      <c r="B71" s="33"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="33"/>
+      <c r="E71" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="G71" s="7"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="29"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="28" t="s">
-        <v>199</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>206</v>
+      <c r="A72" s="22">
+        <v>69</v>
+      </c>
+      <c r="B72" s="33"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="33"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="G72" s="7"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="22">
-        <v>62</v>
-      </c>
-      <c r="B73" s="29"/>
-      <c r="C73" s="38"/>
-      <c r="D73" s="29"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="18" t="s">
-        <v>203</v>
+        <v>70</v>
+      </c>
+      <c r="B73" s="33"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="G73" s="7"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="22">
-        <v>63</v>
-      </c>
-      <c r="B74" s="29"/>
-      <c r="C74" s="38"/>
-      <c r="D74" s="29"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="17" t="s">
-        <v>204</v>
+        <v>71</v>
+      </c>
+      <c r="B74" s="33"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>130</v>
       </c>
       <c r="G74" s="7"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="22"/>
-      <c r="B75" s="29"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="29"/>
-      <c r="E75" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>214</v>
+      <c r="A75" s="22">
+        <v>72</v>
+      </c>
+      <c r="B75" s="33"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="G75" s="7"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="22"/>
-      <c r="B76" s="29"/>
-      <c r="C76" s="38"/>
-      <c r="D76" s="29"/>
-      <c r="E76" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>215</v>
+      <c r="A76" s="22">
+        <v>73</v>
+      </c>
+      <c r="B76" s="33"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="33"/>
+      <c r="E76" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>132</v>
       </c>
       <c r="G76" s="7"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="22"/>
-      <c r="B77" s="29"/>
-      <c r="C77" s="38"/>
-      <c r="D77" s="29"/>
-      <c r="E77" s="28" t="s">
-        <v>168</v>
-      </c>
-      <c r="F77" s="19" t="s">
-        <v>89</v>
+      <c r="A77" s="22">
+        <v>74</v>
+      </c>
+      <c r="B77" s="33"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="33"/>
+      <c r="E77" s="33"/>
+      <c r="F77" s="17" t="s">
+        <v>195</v>
       </c>
       <c r="G77" s="7"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="22"/>
-      <c r="B78" s="29"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="29"/>
-      <c r="E78" s="30"/>
-      <c r="F78" s="18" t="s">
-        <v>209</v>
+      <c r="A78" s="22">
+        <v>75</v>
+      </c>
+      <c r="B78" s="33"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="33"/>
+      <c r="E78" s="33"/>
+      <c r="F78" s="17" t="s">
+        <v>135</v>
       </c>
       <c r="G78" s="7"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="22">
-        <v>64</v>
-      </c>
-      <c r="B79" s="29"/>
-      <c r="C79" s="38"/>
-      <c r="D79" s="29"/>
-      <c r="E79" s="27" t="s">
-        <v>200</v>
-      </c>
-      <c r="F79" s="18" t="s">
-        <v>202</v>
+        <v>76</v>
+      </c>
+      <c r="B79" s="33"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="33"/>
+      <c r="E79" s="33"/>
+      <c r="F79" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="G79" s="7"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="22">
-        <v>65</v>
-      </c>
-      <c r="B80" s="29"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="13" t="s">
-        <v>206</v>
+        <v>77</v>
+      </c>
+      <c r="B80" s="33"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="17" t="s">
+        <v>134</v>
       </c>
       <c r="G80" s="7"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" s="22"/>
-      <c r="B81" s="29"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="29"/>
-      <c r="E81" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="F81" s="18" t="s">
-        <v>207</v>
+      <c r="A81" s="22">
+        <v>78</v>
+      </c>
+      <c r="B81" s="33"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="33"/>
+      <c r="E81" s="33"/>
+      <c r="F81" s="9" t="s">
+        <v>133</v>
       </c>
       <c r="G81" s="7"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" s="22"/>
-      <c r="B82" s="29"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="29"/>
-      <c r="E82" s="30"/>
-      <c r="F82" s="13" t="s">
-        <v>206</v>
+      <c r="A82" s="22">
+        <v>79</v>
+      </c>
+      <c r="B82" s="33"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="33"/>
+      <c r="E82" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="F82" s="18" t="s">
+        <v>197</v>
       </c>
       <c r="G82" s="7"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A83" s="22"/>
-      <c r="B83" s="29"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="29"/>
-      <c r="E83" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>206</v>
+      <c r="A83" s="22">
+        <v>80</v>
+      </c>
+      <c r="B83" s="33"/>
+      <c r="C83" s="44"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="G83" s="7"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A84" s="22"/>
-      <c r="B84" s="29"/>
-      <c r="C84" s="38"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="13" t="s">
-        <v>208</v>
+      <c r="A84" s="22">
+        <v>81</v>
+      </c>
+      <c r="B84" s="33"/>
+      <c r="C84" s="44"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="17" t="s">
+        <v>198</v>
       </c>
       <c r="G84" s="7"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="22">
-        <v>66</v>
-      </c>
-      <c r="B85" s="29"/>
-      <c r="C85" s="38"/>
-      <c r="D85" s="29"/>
-      <c r="E85" s="30"/>
-      <c r="F85" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
+      </c>
+      <c r="B85" s="33"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>188</v>
       </c>
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="22">
-        <v>67</v>
-      </c>
-      <c r="B86" s="29"/>
-      <c r="C86" s="38"/>
-      <c r="D86" s="29"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="33"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="33"/>
       <c r="E86" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="F86" s="18" t="s">
-        <v>159</v>
+        <v>187</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>189</v>
       </c>
       <c r="G86" s="7"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="22">
-        <v>69</v>
-      </c>
-      <c r="B87" s="29"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="29"/>
-      <c r="E87" s="29" t="s">
-        <v>210</v>
-      </c>
-      <c r="F87" s="18" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="B87" s="33"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="33"/>
+      <c r="E87" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="F87" s="19" t="s">
+        <v>83</v>
       </c>
       <c r="G87" s="7"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="22">
-        <v>70</v>
-      </c>
-      <c r="B88" s="29"/>
-      <c r="C88" s="38"/>
-      <c r="D88" s="29"/>
-      <c r="E88" s="29"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="33"/>
+      <c r="C88" s="44"/>
+      <c r="D88" s="33"/>
+      <c r="E88" s="34"/>
       <c r="F88" s="18" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="G88" s="7"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="22">
-        <v>76</v>
-      </c>
-      <c r="B89" s="29"/>
-      <c r="C89" s="38"/>
-      <c r="D89" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="27" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>145</v>
+        <v>86</v>
+      </c>
+      <c r="B89" s="33"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="33"/>
+      <c r="E89" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" s="18" t="s">
+        <v>178</v>
       </c>
       <c r="G89" s="7"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="22">
-        <v>77</v>
-      </c>
-      <c r="B90" s="29"/>
-      <c r="C90" s="38"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="3" t="s">
-        <v>147</v>
+        <v>87</v>
+      </c>
+      <c r="B90" s="33"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="33"/>
+      <c r="E90" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F90" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="G90" s="7"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="22"/>
-      <c r="B91" s="29"/>
-      <c r="C91" s="38"/>
-      <c r="D91" s="29"/>
-      <c r="E91" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="G91" s="7"/>
+      <c r="A91" s="22">
+        <v>88</v>
+      </c>
+      <c r="B91" s="33"/>
+      <c r="C91" s="44"/>
+      <c r="D91" s="33"/>
+      <c r="E91" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F91" s="45" t="s">
+        <v>199</v>
+      </c>
+      <c r="G91" s="26"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A92" s="22"/>
-      <c r="B92" s="29"/>
-      <c r="C92" s="38"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="F92" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G92" s="7"/>
+      <c r="A92" s="22">
+        <v>89</v>
+      </c>
+      <c r="B92" s="33"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="33"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="45" t="s">
+        <v>235</v>
+      </c>
+      <c r="G92" s="26"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="22">
-        <v>78</v>
-      </c>
-      <c r="B93" s="29"/>
-      <c r="C93" s="38"/>
-      <c r="D93" s="29"/>
-      <c r="E93" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="G93" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="33"/>
+      <c r="C93" s="44"/>
+      <c r="D93" s="33"/>
+      <c r="E93" s="33"/>
+      <c r="F93" s="45" t="s">
+        <v>200</v>
+      </c>
+      <c r="G93" s="26"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="22">
-        <v>79</v>
-      </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="38"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="F94" s="6" t="s">
-        <v>125</v>
+        <v>91</v>
+      </c>
+      <c r="B94" s="33"/>
+      <c r="C94" s="44"/>
+      <c r="D94" s="33"/>
+      <c r="E94" s="33"/>
+      <c r="F94" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="G94" s="7"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
-        <v>80</v>
-      </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="38"/>
-      <c r="D95" s="29"/>
-      <c r="E95" s="29"/>
-      <c r="F95" s="3" t="s">
-        <v>126</v>
+        <v>92</v>
+      </c>
+      <c r="B95" s="33"/>
+      <c r="C95" s="44"/>
+      <c r="D95" s="33"/>
+      <c r="E95" s="34"/>
+      <c r="F95" s="6" t="s">
+        <v>84</v>
       </c>
       <c r="G95" s="7"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="22">
-        <v>81</v>
-      </c>
-      <c r="B96" s="29"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="29"/>
-      <c r="E96" s="29"/>
-      <c r="F96" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="G96" s="7"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="33"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="33"/>
+      <c r="E96" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="G96" s="26"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
-        <v>82</v>
-      </c>
-      <c r="B97" s="29"/>
-      <c r="C97" s="38"/>
-      <c r="D97" s="29"/>
-      <c r="E97" s="30"/>
-      <c r="F97" s="6" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="B97" s="33"/>
+      <c r="C97" s="44"/>
+      <c r="D97" s="33"/>
+      <c r="E97" s="33"/>
+      <c r="F97" s="18" t="s">
+        <v>138</v>
       </c>
       <c r="G97" s="7"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="22">
-        <v>83</v>
-      </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="38"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
+      </c>
+      <c r="B98" s="33"/>
+      <c r="C98" s="44"/>
+      <c r="D98" s="33"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="18" t="s">
+        <v>137</v>
       </c>
       <c r="G98" s="7"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="22">
-        <v>84</v>
-      </c>
-      <c r="B99" s="29"/>
-      <c r="C99" s="38"/>
-      <c r="D99" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E99" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>189</v>
+        <v>96</v>
+      </c>
+      <c r="B99" s="33"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F99" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="G99" s="7"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="22">
-        <v>85</v>
-      </c>
-      <c r="B100" s="29"/>
-      <c r="C100" s="38"/>
-      <c r="D100" s="33"/>
-      <c r="E100" s="16" t="s">
-        <v>186</v>
+        <v>97</v>
+      </c>
+      <c r="B100" s="33"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="E100" s="38" t="s">
+        <v>169</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="G100" s="7"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="22">
-        <v>86</v>
-      </c>
-      <c r="B101" s="29"/>
-      <c r="C101" s="38"/>
+        <v>98</v>
+      </c>
+      <c r="B101" s="33"/>
+      <c r="C101" s="44"/>
       <c r="D101" s="33"/>
-      <c r="E101" s="16" t="s">
-        <v>187</v>
-      </c>
+      <c r="E101" s="38"/>
       <c r="F101" s="3" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="G101" s="7"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="22">
-        <v>87</v>
-      </c>
-      <c r="B102" s="29"/>
-      <c r="C102" s="38"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="33"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="33"/>
-      <c r="E102" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="F102" s="19" t="s">
-        <v>75</v>
+      <c r="E102" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="G102" s="7"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="22">
-        <v>88</v>
-      </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="38"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="33"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="33"/>
-      <c r="E103" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>109</v>
+      <c r="E103" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G103" s="7"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="22">
-        <v>89</v>
-      </c>
-      <c r="B104" s="29"/>
-      <c r="C104" s="38"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="33"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="33"/>
-      <c r="E104" s="33"/>
-      <c r="F104" s="20" t="s">
-        <v>161</v>
+      <c r="E104" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G104" s="7"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="22">
-        <v>90</v>
-      </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="38"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="33"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="33"/>
-      <c r="E105" s="33"/>
-      <c r="F105" s="20" t="s">
-        <v>74</v>
+      <c r="E105" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="G105" s="7"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="22">
-        <v>91</v>
-      </c>
-      <c r="B106" s="29"/>
-      <c r="C106" s="39"/>
-      <c r="D106" s="32"/>
-      <c r="E106" s="32"/>
-      <c r="F106" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="G106" s="7"/>
+        <v>103</v>
+      </c>
+      <c r="B106" s="33"/>
+      <c r="C106" s="44"/>
+      <c r="D106" s="33"/>
+      <c r="E106" s="33"/>
+      <c r="F106" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G106" s="26"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="22">
-        <v>92</v>
-      </c>
-      <c r="B107" s="29"/>
-      <c r="C107" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="D107" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="E107" s="28" t="s">
-        <v>105</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="B107" s="33"/>
+      <c r="C107" s="44"/>
+      <c r="D107" s="33"/>
+      <c r="E107" s="33"/>
       <c r="F107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G107" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="G107" s="26"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="22">
-        <v>93</v>
-      </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
+        <v>105</v>
+      </c>
+      <c r="B108" s="33"/>
+      <c r="C108" s="44"/>
+      <c r="D108" s="33"/>
+      <c r="E108" s="33"/>
       <c r="F108" s="3" t="s">
-        <v>107</v>
+        <v>206</v>
       </c>
       <c r="G108" s="7"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="22">
-        <v>94</v>
-      </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
+        <v>106</v>
+      </c>
+      <c r="B109" s="33"/>
+      <c r="C109" s="44"/>
+      <c r="D109" s="33"/>
+      <c r="E109" s="33"/>
+      <c r="F109" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="G109" s="7"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="22">
-        <v>95</v>
-      </c>
-      <c r="B110" s="29"/>
-      <c r="C110" s="29"/>
-      <c r="D110" s="29"/>
-      <c r="E110" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F110" s="11" t="s">
-        <v>113</v>
+        <v>107</v>
+      </c>
+      <c r="B110" s="33"/>
+      <c r="C110" s="44"/>
+      <c r="D110" s="33"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="46" t="s">
+        <v>207</v>
       </c>
       <c r="G110" s="7"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="22">
-        <v>96</v>
-      </c>
-      <c r="B111" s="29"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="B111" s="33"/>
+      <c r="C111" s="44"/>
+      <c r="D111" s="33"/>
       <c r="E111" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>115</v>
       </c>
       <c r="G111" s="7"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="22">
-        <v>97</v>
-      </c>
-      <c r="B112" s="29"/>
-      <c r="C112" s="29"/>
-      <c r="D112" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E112" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>47</v>
+        <v>109</v>
+      </c>
+      <c r="B112" s="33"/>
+      <c r="C112" s="44"/>
+      <c r="D112" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="G112" s="7"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="22">
-        <v>98</v>
-      </c>
-      <c r="B113" s="29"/>
-      <c r="C113" s="29"/>
-      <c r="D113" s="29"/>
-      <c r="E113" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>91</v>
+        <v>110</v>
+      </c>
+      <c r="B113" s="33"/>
+      <c r="C113" s="44"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="G113" s="7"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="22">
-        <v>99</v>
-      </c>
-      <c r="B114" s="29"/>
-      <c r="C114" s="29"/>
-      <c r="D114" s="30"/>
-      <c r="E114" s="7" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="B114" s="33"/>
+      <c r="C114" s="44"/>
+      <c r="D114" s="36"/>
+      <c r="E114" s="16" t="s">
+        <v>163</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>48</v>
+        <v>166</v>
       </c>
       <c r="G114" s="7"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="22">
-        <v>100</v>
-      </c>
-      <c r="B115" s="29"/>
-      <c r="C115" s="29"/>
-      <c r="D115" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E115" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="F115" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="G115" s="7"/>
+        <v>112</v>
+      </c>
+      <c r="B115" s="33"/>
+      <c r="C115" s="44"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="F115" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G115" s="26"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="22">
-        <v>101</v>
-      </c>
-      <c r="B116" s="29"/>
-      <c r="C116" s="29"/>
-      <c r="D116" s="29"/>
-      <c r="E116" s="29"/>
-      <c r="F116" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="G116" s="7"/>
+        <v>113</v>
+      </c>
+      <c r="B116" s="33"/>
+      <c r="C116" s="44"/>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="G116" s="26"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="22">
-        <v>102</v>
-      </c>
-      <c r="B117" s="29"/>
-      <c r="C117" s="29"/>
-      <c r="D117" s="29"/>
-      <c r="E117" s="30"/>
-      <c r="F117" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="G117" s="7"/>
+        <v>114</v>
+      </c>
+      <c r="B117" s="33"/>
+      <c r="C117" s="44"/>
+      <c r="D117" s="36"/>
+      <c r="E117" s="36"/>
+      <c r="F117" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G117" s="26"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="22">
-        <v>103</v>
-      </c>
-      <c r="B118" s="29"/>
-      <c r="C118" s="29"/>
-      <c r="D118" s="29"/>
-      <c r="E118" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G118" s="7"/>
+        <v>115</v>
+      </c>
+      <c r="B118" s="33"/>
+      <c r="C118" s="44"/>
+      <c r="D118" s="36"/>
+      <c r="E118" s="36"/>
+      <c r="F118" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G118" s="26"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="22">
-        <v>104</v>
-      </c>
-      <c r="B119" s="29"/>
-      <c r="C119" s="29"/>
-      <c r="D119" s="30"/>
-      <c r="E119" s="7" t="s">
-        <v>43</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B119" s="33"/>
+      <c r="C119" s="44"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="37"/>
       <c r="F119" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="G119" s="7"/>
+        <v>203</v>
+      </c>
+      <c r="G119" s="26"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="22">
-        <v>105</v>
-      </c>
-      <c r="B120" s="29"/>
-      <c r="C120" s="29"/>
-      <c r="D120" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="E120" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F120" s="9" t="s">
-        <v>94</v>
+        <v>117</v>
+      </c>
+      <c r="B120" s="33"/>
+      <c r="C120" s="44"/>
+      <c r="D120" s="36"/>
+      <c r="E120" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F120" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="G120" s="7"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
-        <v>106</v>
-      </c>
-      <c r="B121" s="29"/>
-      <c r="C121" s="29"/>
-      <c r="D121" s="29"/>
-      <c r="E121" s="30"/>
-      <c r="F121" s="9" t="s">
-        <v>165</v>
+        <v>118</v>
+      </c>
+      <c r="B121" s="33"/>
+      <c r="C121" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="E121" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="G121" s="7"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="22">
-        <v>107</v>
-      </c>
-      <c r="B122" s="29"/>
-      <c r="C122" s="29"/>
-      <c r="D122" s="29"/>
-      <c r="E122" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F122" s="9" t="s">
-        <v>95</v>
+        <v>119</v>
+      </c>
+      <c r="B122" s="33"/>
+      <c r="C122" s="33"/>
+      <c r="D122" s="33"/>
+      <c r="E122" s="33"/>
+      <c r="F122" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G122" s="7"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="22">
-        <v>108</v>
-      </c>
-      <c r="B123" s="29"/>
-      <c r="C123" s="29"/>
-      <c r="D123" s="30"/>
+        <v>120</v>
+      </c>
+      <c r="B123" s="33"/>
+      <c r="C123" s="33"/>
+      <c r="D123" s="33"/>
       <c r="E123" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F123" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="G123" s="7"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="22">
-        <v>109</v>
-      </c>
-      <c r="B124" s="29"/>
-      <c r="C124" s="29"/>
-      <c r="D124" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="E124" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F124" s="3" t="s">
-        <v>97</v>
+        <v>121</v>
+      </c>
+      <c r="B124" s="33"/>
+      <c r="C124" s="33"/>
+      <c r="D124" s="34"/>
+      <c r="E124" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="G124" s="7"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="22">
-        <v>110</v>
-      </c>
-      <c r="B125" s="29"/>
-      <c r="C125" s="29"/>
-      <c r="D125" s="29"/>
-      <c r="E125" s="21" t="s">
-        <v>55</v>
+        <v>122</v>
+      </c>
+      <c r="B125" s="33"/>
+      <c r="C125" s="33"/>
+      <c r="D125" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="F125" s="9" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="G125" s="7"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="22">
-        <v>111</v>
-      </c>
-      <c r="B126" s="29"/>
-      <c r="C126" s="29"/>
-      <c r="D126" s="29"/>
-      <c r="E126" s="21" t="s">
-        <v>57</v>
+        <v>123</v>
+      </c>
+      <c r="B126" s="33"/>
+      <c r="C126" s="33"/>
+      <c r="D126" s="33"/>
+      <c r="E126" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="G126" s="7"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="22">
-        <v>112</v>
-      </c>
-      <c r="B127" s="29"/>
-      <c r="C127" s="29"/>
-      <c r="D127" s="30"/>
-      <c r="E127" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>99</v>
+        <v>124</v>
+      </c>
+      <c r="B127" s="33"/>
+      <c r="C127" s="33"/>
+      <c r="D127" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="E127" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="18" t="s">
+        <v>141</v>
       </c>
       <c r="G127" s="7"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="22">
-        <v>113</v>
-      </c>
-      <c r="B128" s="29"/>
-      <c r="C128" s="29"/>
-      <c r="D128" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="E128" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>52</v>
+        <v>125</v>
+      </c>
+      <c r="B128" s="33"/>
+      <c r="C128" s="33"/>
+      <c r="D128" s="33"/>
+      <c r="E128" s="33"/>
+      <c r="F128" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="G128" s="7"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A129" s="22">
-        <v>114</v>
-      </c>
-      <c r="B129" s="29"/>
-      <c r="C129" s="29"/>
-      <c r="D129" s="29"/>
-      <c r="E129" s="30"/>
-      <c r="F129" s="9" t="s">
-        <v>21</v>
+        <v>126</v>
+      </c>
+      <c r="B129" s="33"/>
+      <c r="C129" s="33"/>
+      <c r="D129" s="33"/>
+      <c r="E129" s="34"/>
+      <c r="F129" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="G129" s="7"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A130" s="22">
-        <v>115</v>
-      </c>
-      <c r="B130" s="29"/>
-      <c r="C130" s="29"/>
-      <c r="D130" s="29"/>
-      <c r="E130" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="F130" s="9" t="s">
-        <v>100</v>
+        <v>127</v>
+      </c>
+      <c r="B130" s="33"/>
+      <c r="C130" s="33"/>
+      <c r="D130" s="33"/>
+      <c r="E130" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="G130" s="7"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A131" s="22">
-        <v>116</v>
-      </c>
-      <c r="B131" s="30"/>
-      <c r="C131" s="30"/>
-      <c r="D131" s="30"/>
+        <v>128</v>
+      </c>
+      <c r="B131" s="33"/>
+      <c r="C131" s="33"/>
+      <c r="D131" s="34"/>
       <c r="E131" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G131" s="7"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" s="22">
+        <v>129</v>
+      </c>
+      <c r="B132" s="33"/>
+      <c r="C132" s="33"/>
+      <c r="D132" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E132" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G132" s="7"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" s="22">
+        <v>130</v>
+      </c>
+      <c r="B133" s="33"/>
+      <c r="C133" s="33"/>
+      <c r="D133" s="33"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G133" s="7"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" s="22">
+        <v>131</v>
+      </c>
+      <c r="B134" s="33"/>
+      <c r="C134" s="33"/>
+      <c r="D134" s="33"/>
+      <c r="E134" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="G134" s="26"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" s="22">
+        <v>132</v>
+      </c>
+      <c r="B135" s="33"/>
+      <c r="C135" s="33"/>
+      <c r="D135" s="33"/>
+      <c r="E135" s="29" t="s">
+        <v>211</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="G135" s="26"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" s="22">
+        <v>133</v>
+      </c>
+      <c r="B136" s="33"/>
+      <c r="C136" s="33"/>
+      <c r="D136" s="33"/>
+      <c r="E136" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="G136" s="26"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="22">
+        <v>134</v>
+      </c>
+      <c r="B137" s="33"/>
+      <c r="C137" s="33"/>
+      <c r="D137" s="33"/>
+      <c r="E137" s="29" t="s">
+        <v>213</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G137" s="26"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" s="22">
+        <v>135</v>
+      </c>
+      <c r="B138" s="33"/>
+      <c r="C138" s="33"/>
+      <c r="D138" s="33"/>
+      <c r="E138" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G138" s="7"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" s="22">
+        <v>136</v>
+      </c>
+      <c r="B139" s="33"/>
+      <c r="C139" s="33"/>
+      <c r="D139" s="34"/>
+      <c r="E139" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G139" s="7"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" s="22">
+        <v>137</v>
+      </c>
+      <c r="B140" s="33"/>
+      <c r="C140" s="33"/>
+      <c r="D140" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G140" s="7"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" s="22">
+        <v>138</v>
+      </c>
+      <c r="B141" s="33"/>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G141" s="7"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" s="22">
+        <v>139</v>
+      </c>
+      <c r="B142" s="33"/>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="G142" s="7"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" s="22">
+        <v>140</v>
+      </c>
+      <c r="B143" s="33"/>
+      <c r="C143" s="33"/>
+      <c r="D143" s="34"/>
+      <c r="E143" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G143" s="7"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" s="22">
+        <v>141</v>
+      </c>
+      <c r="B144" s="33"/>
+      <c r="C144" s="33"/>
+      <c r="D144" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="E144" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F144" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G144" s="7"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" s="22">
+        <v>142</v>
+      </c>
+      <c r="B145" s="33"/>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G145" s="26"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" s="22">
+        <v>143</v>
+      </c>
+      <c r="B146" s="33"/>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G146" s="7"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" s="22">
+        <v>144</v>
+      </c>
+      <c r="B147" s="33"/>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F131" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="G131" s="7"/>
+      <c r="F147" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="7"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" s="22">
+        <v>145</v>
+      </c>
+      <c r="B148" s="34"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="G148" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="D115:D119"/>
-    <mergeCell ref="D120:D123"/>
-    <mergeCell ref="D124:D127"/>
+  <mergeCells count="49">
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E115:E119"/>
+    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D18:D27"/>
+    <mergeCell ref="D67:D73"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="D28:D35"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D4:D11"/>
+    <mergeCell ref="B4:B148"/>
+    <mergeCell ref="C4:C120"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="C121:C148"/>
+    <mergeCell ref="E144:E146"/>
+    <mergeCell ref="D74:D99"/>
+    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="D100:D111"/>
+    <mergeCell ref="E105:E110"/>
+    <mergeCell ref="D144:D148"/>
+    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="E76:E81"/>
+    <mergeCell ref="D36:D65"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="D132:D139"/>
+    <mergeCell ref="D140:D143"/>
     <mergeCell ref="E36:E37"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="E72:E74"/>
-    <mergeCell ref="E83:E85"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E103:E106"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E115:E117"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="E107:E109"/>
-    <mergeCell ref="D107:D111"/>
-    <mergeCell ref="D99:D106"/>
-    <mergeCell ref="E128:E129"/>
-    <mergeCell ref="D64:D88"/>
-    <mergeCell ref="E120:E121"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D89:D98"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="D128:D131"/>
-    <mergeCell ref="D112:D114"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="E82:E84"/>
+    <mergeCell ref="E91:E95"/>
+    <mergeCell ref="E87:E88"/>
     <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="D35:D55"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D17:D26"/>
-    <mergeCell ref="D56:D63"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="D27:D34"/>
-    <mergeCell ref="E8:E11"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D4:D11"/>
-    <mergeCell ref="B4:B131"/>
-    <mergeCell ref="C4:C106"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="C107:C131"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E127:E129"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E121:E122"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="D112:D120"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항.xlsx
+++ b/resource/30.analysis/320.environment/[Saturn]322.브라보 마이 라이프 요구사항.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$G$149</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="247">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1022,6 +1022,14 @@
   </si>
   <si>
     <t>사이트 상단의 검색창에서 카테고리별 및 브랜드, 제품타입으로 상품 검색을 진행할 수 있어야 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인기 상품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제가 완료된 상품들에 대하여 판매 개수를 계산하여 상위 20위개 상품을 인가 상품으로 등록할 수 있어야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,7 +1202,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1291,6 +1299,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1303,15 +1323,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1329,12 +1349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,10 +1639,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A118" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A148"/>
+      <selection activeCell="A87" sqref="A87:A149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,15 +1656,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
@@ -1688,13 +1702,13 @@
       <c r="A4" s="22">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="46" t="s">
         <v>67</v>
       </c>
       <c r="E4" s="23" t="s">
@@ -1709,9 +1723,9 @@
       <c r="A5" s="22">
         <v>2</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="46"/>
       <c r="E5" s="23" t="s">
         <v>30</v>
       </c>
@@ -1724,9 +1738,9 @@
       <c r="A6" s="22">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="42"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="23" t="s">
         <v>147</v>
       </c>
@@ -1739,9 +1753,9 @@
       <c r="A7" s="22">
         <v>4</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="42"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="46"/>
       <c r="E7" s="23" t="s">
         <v>148</v>
       </c>
@@ -1754,10 +1768,10 @@
       <c r="A8" s="22">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="40" t="s">
+      <c r="B8" s="37"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="44" t="s">
         <v>149</v>
       </c>
       <c r="F8" s="24" t="s">
@@ -1769,10 +1783,10 @@
       <c r="A9" s="22">
         <v>6</v>
       </c>
-      <c r="B9" s="33"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="41"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="45"/>
       <c r="F9" s="25" t="s">
         <v>151</v>
       </c>
@@ -1782,10 +1796,10 @@
       <c r="A10" s="22">
         <v>7</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="45"/>
       <c r="F10" s="3" t="s">
         <v>152</v>
       </c>
@@ -1795,10 +1809,10 @@
       <c r="A11" s="22">
         <v>8</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="41"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="45"/>
       <c r="F11" s="3" t="s">
         <v>153</v>
       </c>
@@ -1808,9 +1822,9 @@
       <c r="A12" s="22">
         <v>9</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="42" t="s">
+      <c r="B12" s="37"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="46" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="23" t="s">
@@ -1825,9 +1839,9 @@
       <c r="A13" s="22">
         <v>10</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="46"/>
       <c r="E13" s="23" t="s">
         <v>156</v>
       </c>
@@ -1840,9 +1854,9 @@
       <c r="A14" s="22">
         <v>11</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="42"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="23" t="s">
         <v>158</v>
       </c>
@@ -1855,9 +1869,9 @@
       <c r="A15" s="22">
         <v>12</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="42"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="46"/>
       <c r="E15" s="31" t="s">
         <v>242</v>
       </c>
@@ -1870,9 +1884,9 @@
       <c r="A16" s="22">
         <v>13</v>
       </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="42"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="46"/>
       <c r="E16" s="23" t="s">
         <v>241</v>
       </c>
@@ -1885,9 +1899,9 @@
       <c r="A17" s="22">
         <v>14</v>
       </c>
-      <c r="B17" s="33"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="42"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="46"/>
       <c r="E17" s="23" t="s">
         <v>239</v>
       </c>
@@ -1900,9 +1914,9 @@
       <c r="A18" s="22">
         <v>15</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="38" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="41" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="7" t="s">
@@ -1917,9 +1931,9 @@
       <c r="A19" s="22">
         <v>16</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="7" t="s">
         <v>7</v>
       </c>
@@ -1932,10 +1946,10 @@
       <c r="A20" s="22">
         <v>17</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="13" t="s">
@@ -1947,10 +1961,10 @@
       <c r="A21" s="22">
         <v>18</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
       <c r="F21" t="s">
         <v>124</v>
       </c>
@@ -1960,9 +1974,9 @@
       <c r="A22" s="22">
         <v>19</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="41"/>
       <c r="E22" s="7" t="s">
         <v>94</v>
       </c>
@@ -1975,9 +1989,9 @@
       <c r="A23" s="22">
         <v>20</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="41"/>
       <c r="E23" s="7" t="s">
         <v>117</v>
       </c>
@@ -1990,10 +2004,10 @@
       <c r="A24" s="22">
         <v>21</v>
       </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38" t="s">
+      <c r="B24" s="37"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41" t="s">
         <v>24</v>
       </c>
       <c r="F24" s="13" t="s">
@@ -2005,10 +2019,10 @@
       <c r="A25" s="22">
         <v>22</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
       <c r="F25" s="14" t="s">
         <v>70</v>
       </c>
@@ -2018,9 +2032,9 @@
       <c r="A26" s="22">
         <v>23</v>
       </c>
-      <c r="B26" s="33"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="41"/>
       <c r="E26" s="7" t="s">
         <v>23</v>
       </c>
@@ -2033,9 +2047,9 @@
       <c r="A27" s="22">
         <v>24</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="41"/>
       <c r="E27" s="7" t="s">
         <v>120</v>
       </c>
@@ -2048,9 +2062,9 @@
       <c r="A28" s="22">
         <v>25</v>
       </c>
-      <c r="B28" s="33"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="33" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="12" t="s">
@@ -2065,9 +2079,9 @@
       <c r="A29" s="22">
         <v>26</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="33"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="37"/>
       <c r="E29" s="12" t="s">
         <v>96</v>
       </c>
@@ -2080,10 +2094,10 @@
       <c r="A30" s="22">
         <v>27</v>
       </c>
-      <c r="B30" s="33"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="32" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="48"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="36" t="s">
         <v>10</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -2095,10 +2109,10 @@
       <c r="A31" s="22">
         <v>28</v>
       </c>
-      <c r="B31" s="33"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
@@ -2108,10 +2122,10 @@
       <c r="A32" s="22">
         <v>29</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="32" t="s">
+      <c r="B32" s="37"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="36" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="3" t="s">
@@ -2123,10 +2137,10 @@
       <c r="A33" s="22">
         <v>30</v>
       </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
       <c r="F33" s="3" t="s">
         <v>12</v>
       </c>
@@ -2136,10 +2150,10 @@
       <c r="A34" s="22">
         <v>31</v>
       </c>
-      <c r="B34" s="33"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="48"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="8" t="s">
         <v>72</v>
       </c>
@@ -2149,9 +2163,9 @@
       <c r="A35" s="22">
         <v>32</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="34"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="38"/>
       <c r="E35" s="7" t="s">
         <v>20</v>
       </c>
@@ -2164,10 +2178,10 @@
       <c r="A36" s="22">
         <v>33</v>
       </c>
-      <c r="B36" s="33"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="32" t="s">
+      <c r="B36" s="37"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="36" t="s">
         <v>109</v>
       </c>
       <c r="F36" s="3" t="s">
@@ -2179,10 +2193,10 @@
       <c r="A37" s="22">
         <v>34</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="3" t="s">
         <v>75</v>
       </c>
@@ -2192,10 +2206,10 @@
       <c r="A38" s="22">
         <v>35</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="32" t="s">
+      <c r="B38" s="37"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="36" t="s">
         <v>226</v>
       </c>
       <c r="F38" s="3" t="s">
@@ -2207,10 +2221,10 @@
       <c r="A39" s="22">
         <v>36</v>
       </c>
-      <c r="B39" s="33"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
       <c r="F39" s="3" t="s">
         <v>230</v>
       </c>
@@ -2220,10 +2234,10 @@
       <c r="A40" s="22">
         <v>37</v>
       </c>
-      <c r="B40" s="33"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="48"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
       <c r="F40" s="3" t="s">
         <v>227</v>
       </c>
@@ -2233,10 +2247,10 @@
       <c r="A41" s="22">
         <v>38</v>
       </c>
-      <c r="B41" s="33"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
       <c r="F41" s="3" t="s">
         <v>229</v>
       </c>
@@ -2246,10 +2260,10 @@
       <c r="A42" s="22">
         <v>39</v>
       </c>
-      <c r="B42" s="33"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="3" t="s">
         <v>228</v>
       </c>
@@ -2259,10 +2273,10 @@
       <c r="A43" s="22">
         <v>40</v>
       </c>
-      <c r="B43" s="33"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="3" t="s">
         <v>64</v>
       </c>
@@ -2272,10 +2286,10 @@
       <c r="A44" s="22">
         <v>41</v>
       </c>
-      <c r="B44" s="33"/>
-      <c r="C44" s="44"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="48"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="3" t="s">
         <v>60</v>
       </c>
@@ -2285,10 +2299,10 @@
       <c r="A45" s="22">
         <v>42</v>
       </c>
-      <c r="B45" s="33"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33" t="s">
+      <c r="B45" s="37"/>
+      <c r="C45" s="48"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37" t="s">
         <v>63</v>
       </c>
       <c r="F45" s="3" t="s">
@@ -2300,10 +2314,10 @@
       <c r="A46" s="22">
         <v>43</v>
       </c>
-      <c r="B46" s="33"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="48"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="8" t="s">
         <v>73</v>
       </c>
@@ -2313,10 +2327,10 @@
       <c r="A47" s="22">
         <v>44</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="32" t="s">
+      <c r="B47" s="37"/>
+      <c r="C47" s="48"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="36" t="s">
         <v>231</v>
       </c>
       <c r="F47" s="8" t="s">
@@ -2328,10 +2342,10 @@
       <c r="A48" s="22">
         <v>45</v>
       </c>
-      <c r="B48" s="33"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="33"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
       <c r="F48" s="8" t="s">
         <v>233</v>
       </c>
@@ -2341,10 +2355,10 @@
       <c r="A49" s="22">
         <v>46</v>
       </c>
-      <c r="B49" s="33"/>
-      <c r="C49" s="44"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="48"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="8" t="s">
         <v>232</v>
       </c>
@@ -2354,10 +2368,10 @@
       <c r="A50" s="22">
         <v>47</v>
       </c>
-      <c r="B50" s="33"/>
-      <c r="C50" s="44"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="32" t="s">
+      <c r="B50" s="37"/>
+      <c r="C50" s="48"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="36" t="s">
         <v>202</v>
       </c>
       <c r="F50" s="8" t="s">
@@ -2369,10 +2383,10 @@
       <c r="A51" s="22">
         <v>48</v>
       </c>
-      <c r="B51" s="33"/>
-      <c r="C51" s="44"/>
-      <c r="D51" s="33"/>
-      <c r="E51" s="34"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="48"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="8" t="s">
         <v>238</v>
       </c>
@@ -2382,9 +2396,9 @@
       <c r="A52" s="22">
         <v>49</v>
       </c>
-      <c r="B52" s="33"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="33"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="48"/>
+      <c r="D52" s="37"/>
       <c r="E52" s="10" t="s">
         <v>167</v>
       </c>
@@ -2397,10 +2411,10 @@
       <c r="A53" s="22">
         <v>50</v>
       </c>
-      <c r="B53" s="33"/>
-      <c r="C53" s="44"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="32" t="s">
+      <c r="B53" s="37"/>
+      <c r="C53" s="48"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="36" t="s">
         <v>223</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -2412,10 +2426,10 @@
       <c r="A54" s="22">
         <v>51</v>
       </c>
-      <c r="B54" s="33"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="48"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="8" t="s">
         <v>224</v>
       </c>
@@ -2425,9 +2439,9 @@
       <c r="A55" s="22">
         <v>52</v>
       </c>
-      <c r="B55" s="33"/>
-      <c r="C55" s="44"/>
-      <c r="D55" s="33"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="37"/>
       <c r="E55" s="15" t="s">
         <v>62</v>
       </c>
@@ -2440,10 +2454,10 @@
       <c r="A56" s="22">
         <v>53</v>
       </c>
-      <c r="B56" s="33"/>
-      <c r="C56" s="44"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="35" t="s">
+      <c r="B56" s="37"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="39" t="s">
         <v>15</v>
       </c>
       <c r="F56" s="9" t="s">
@@ -2455,10 +2469,10 @@
       <c r="A57" s="22">
         <v>54</v>
       </c>
-      <c r="B57" s="33"/>
-      <c r="C57" s="44"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="37"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="48"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="40"/>
       <c r="F57" s="3" t="s">
         <v>78</v>
       </c>
@@ -2468,10 +2482,10 @@
       <c r="A58" s="22">
         <v>55</v>
       </c>
-      <c r="B58" s="33"/>
-      <c r="C58" s="44"/>
-      <c r="D58" s="33"/>
-      <c r="E58" s="32" t="s">
+      <c r="B58" s="37"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="36" t="s">
         <v>57</v>
       </c>
       <c r="F58" s="3" t="s">
@@ -2483,10 +2497,10 @@
       <c r="A59" s="22">
         <v>56</v>
       </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="48"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="37"/>
       <c r="F59" s="3" t="s">
         <v>221</v>
       </c>
@@ -2496,10 +2510,10 @@
       <c r="A60" s="22">
         <v>57</v>
       </c>
-      <c r="B60" s="33"/>
-      <c r="C60" s="44"/>
-      <c r="D60" s="33"/>
-      <c r="E60" s="34"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="38"/>
       <c r="F60" s="3" t="s">
         <v>79</v>
       </c>
@@ -2509,10 +2523,10 @@
       <c r="A61" s="22">
         <v>58</v>
       </c>
-      <c r="B61" s="33"/>
-      <c r="C61" s="44"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="35" t="s">
+      <c r="B61" s="37"/>
+      <c r="C61" s="48"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="39" t="s">
         <v>58</v>
       </c>
       <c r="F61" s="8" t="s">
@@ -2524,10 +2538,10 @@
       <c r="A62" s="22">
         <v>59</v>
       </c>
-      <c r="B62" s="33"/>
-      <c r="C62" s="44"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="36"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="48"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="42"/>
       <c r="F62" s="3" t="s">
         <v>59</v>
       </c>
@@ -2537,10 +2551,10 @@
       <c r="A63" s="22">
         <v>60</v>
       </c>
-      <c r="B63" s="33"/>
-      <c r="C63" s="44"/>
-      <c r="D63" s="33"/>
-      <c r="E63" s="37"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="48"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="40"/>
       <c r="F63" s="3" t="s">
         <v>127</v>
       </c>
@@ -2550,10 +2564,10 @@
       <c r="A64" s="22">
         <v>61</v>
       </c>
-      <c r="B64" s="33"/>
-      <c r="C64" s="44"/>
-      <c r="D64" s="33"/>
-      <c r="E64" s="35" t="s">
+      <c r="B64" s="37"/>
+      <c r="C64" s="48"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="39" t="s">
         <v>110</v>
       </c>
       <c r="F64" s="3" t="s">
@@ -2565,10 +2579,10 @@
       <c r="A65" s="22">
         <v>62</v>
       </c>
-      <c r="B65" s="33"/>
-      <c r="C65" s="44"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="37"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="48"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="40"/>
       <c r="F65" s="3" t="s">
         <v>125</v>
       </c>
@@ -2578,8 +2592,8 @@
       <c r="A66" s="22">
         <v>63</v>
       </c>
-      <c r="B66" s="33"/>
-      <c r="C66" s="44"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="48"/>
       <c r="D66" s="28" t="s">
         <v>216</v>
       </c>
@@ -2595,12 +2609,12 @@
       <c r="A67" s="22">
         <v>64</v>
       </c>
-      <c r="B67" s="33"/>
-      <c r="C67" s="44"/>
-      <c r="D67" s="32" t="s">
+      <c r="B67" s="37"/>
+      <c r="C67" s="48"/>
+      <c r="D67" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E67" s="32" t="s">
+      <c r="E67" s="36" t="s">
         <v>99</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -2612,10 +2626,10 @@
       <c r="A68" s="22">
         <v>65</v>
       </c>
-      <c r="B68" s="33"/>
-      <c r="C68" s="44"/>
-      <c r="D68" s="33"/>
-      <c r="E68" s="33"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="48"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="37"/>
       <c r="F68" s="3" t="s">
         <v>32</v>
       </c>
@@ -2625,9 +2639,9 @@
       <c r="A69" s="22">
         <v>66</v>
       </c>
-      <c r="B69" s="33"/>
-      <c r="C69" s="44"/>
-      <c r="D69" s="33"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="48"/>
+      <c r="D69" s="37"/>
       <c r="E69" s="26" t="s">
         <v>65</v>
       </c>
@@ -2640,9 +2654,9 @@
       <c r="A70" s="22">
         <v>67</v>
       </c>
-      <c r="B70" s="33"/>
-      <c r="C70" s="44"/>
-      <c r="D70" s="33"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="48"/>
+      <c r="D70" s="37"/>
       <c r="E70" s="12" t="s">
         <v>66</v>
       </c>
@@ -2655,10 +2669,10 @@
       <c r="A71" s="22">
         <v>68</v>
       </c>
-      <c r="B71" s="33"/>
-      <c r="C71" s="44"/>
-      <c r="D71" s="33"/>
-      <c r="E71" s="32" t="s">
+      <c r="B71" s="37"/>
+      <c r="C71" s="48"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="36" t="s">
         <v>67</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -2670,10 +2684,10 @@
       <c r="A72" s="22">
         <v>69</v>
       </c>
-      <c r="B72" s="33"/>
-      <c r="C72" s="44"/>
-      <c r="D72" s="33"/>
-      <c r="E72" s="33"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="48"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="37"/>
       <c r="F72" s="3" t="s">
         <v>108</v>
       </c>
@@ -2683,10 +2697,10 @@
       <c r="A73" s="22">
         <v>70</v>
       </c>
-      <c r="B73" s="33"/>
-      <c r="C73" s="44"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
+      <c r="B73" s="37"/>
+      <c r="C73" s="48"/>
+      <c r="D73" s="38"/>
+      <c r="E73" s="38"/>
       <c r="F73" s="3" t="s">
         <v>81</v>
       </c>
@@ -2696,12 +2710,12 @@
       <c r="A74" s="22">
         <v>71</v>
       </c>
-      <c r="B74" s="33"/>
-      <c r="C74" s="44"/>
-      <c r="D74" s="32" t="s">
+      <c r="B74" s="37"/>
+      <c r="C74" s="48"/>
+      <c r="D74" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E74" s="36" t="s">
         <v>25</v>
       </c>
       <c r="F74" s="3" t="s">
@@ -2713,10 +2727,10 @@
       <c r="A75" s="22">
         <v>72</v>
       </c>
-      <c r="B75" s="33"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="33"/>
-      <c r="E75" s="33"/>
+      <c r="B75" s="37"/>
+      <c r="C75" s="48"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="37"/>
       <c r="F75" s="3" t="s">
         <v>82</v>
       </c>
@@ -2726,10 +2740,10 @@
       <c r="A76" s="22">
         <v>73</v>
       </c>
-      <c r="B76" s="33"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="33"/>
-      <c r="E76" s="32" t="s">
+      <c r="B76" s="37"/>
+      <c r="C76" s="48"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="36" t="s">
         <v>131</v>
       </c>
       <c r="F76" s="9" t="s">
@@ -2741,10 +2755,10 @@
       <c r="A77" s="22">
         <v>74</v>
       </c>
-      <c r="B77" s="33"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="33"/>
-      <c r="E77" s="33"/>
+      <c r="B77" s="37"/>
+      <c r="C77" s="48"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="37"/>
       <c r="F77" s="17" t="s">
         <v>195</v>
       </c>
@@ -2754,10 +2768,10 @@
       <c r="A78" s="22">
         <v>75</v>
       </c>
-      <c r="B78" s="33"/>
-      <c r="C78" s="44"/>
-      <c r="D78" s="33"/>
-      <c r="E78" s="33"/>
+      <c r="B78" s="37"/>
+      <c r="C78" s="48"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="37"/>
       <c r="F78" s="17" t="s">
         <v>135</v>
       </c>
@@ -2767,10 +2781,10 @@
       <c r="A79" s="22">
         <v>76</v>
       </c>
-      <c r="B79" s="33"/>
-      <c r="C79" s="44"/>
-      <c r="D79" s="33"/>
-      <c r="E79" s="33"/>
+      <c r="B79" s="37"/>
+      <c r="C79" s="48"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
       <c r="F79" s="17" t="s">
         <v>196</v>
       </c>
@@ -2780,10 +2794,10 @@
       <c r="A80" s="22">
         <v>77</v>
       </c>
-      <c r="B80" s="33"/>
-      <c r="C80" s="44"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
+      <c r="B80" s="37"/>
+      <c r="C80" s="48"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="37"/>
       <c r="F80" s="17" t="s">
         <v>134</v>
       </c>
@@ -2793,10 +2807,10 @@
       <c r="A81" s="22">
         <v>78</v>
       </c>
-      <c r="B81" s="33"/>
-      <c r="C81" s="44"/>
-      <c r="D81" s="33"/>
-      <c r="E81" s="33"/>
+      <c r="B81" s="37"/>
+      <c r="C81" s="48"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="37"/>
       <c r="F81" s="9" t="s">
         <v>133</v>
       </c>
@@ -2806,10 +2820,10 @@
       <c r="A82" s="22">
         <v>79</v>
       </c>
-      <c r="B82" s="33"/>
-      <c r="C82" s="44"/>
-      <c r="D82" s="33"/>
-      <c r="E82" s="32" t="s">
+      <c r="B82" s="37"/>
+      <c r="C82" s="48"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="36" t="s">
         <v>175</v>
       </c>
       <c r="F82" s="18" t="s">
@@ -2821,10 +2835,10 @@
       <c r="A83" s="22">
         <v>80</v>
       </c>
-      <c r="B83" s="33"/>
-      <c r="C83" s="44"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
+      <c r="B83" s="37"/>
+      <c r="C83" s="48"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
       <c r="F83" s="17" t="s">
         <v>179</v>
       </c>
@@ -2834,10 +2848,10 @@
       <c r="A84" s="22">
         <v>81</v>
       </c>
-      <c r="B84" s="33"/>
-      <c r="C84" s="44"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="34"/>
+      <c r="B84" s="37"/>
+      <c r="C84" s="48"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="38"/>
       <c r="F84" s="17" t="s">
         <v>198</v>
       </c>
@@ -2847,9 +2861,9 @@
       <c r="A85" s="22">
         <v>82</v>
       </c>
-      <c r="B85" s="33"/>
-      <c r="C85" s="44"/>
-      <c r="D85" s="33"/>
+      <c r="B85" s="37"/>
+      <c r="C85" s="48"/>
+      <c r="D85" s="37"/>
       <c r="E85" s="7" t="s">
         <v>186</v>
       </c>
@@ -2862,9 +2876,9 @@
       <c r="A86" s="22">
         <v>83</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="44"/>
-      <c r="D86" s="33"/>
+      <c r="B86" s="37"/>
+      <c r="C86" s="48"/>
+      <c r="D86" s="37"/>
       <c r="E86" s="7" t="s">
         <v>187</v>
       </c>
@@ -2877,10 +2891,10 @@
       <c r="A87" s="22">
         <v>84</v>
       </c>
-      <c r="B87" s="33"/>
-      <c r="C87" s="44"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="32" t="s">
+      <c r="B87" s="37"/>
+      <c r="C87" s="48"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="36" t="s">
         <v>147</v>
       </c>
       <c r="F87" s="19" t="s">
@@ -2892,10 +2906,10 @@
       <c r="A88" s="22">
         <v>85</v>
       </c>
-      <c r="B88" s="33"/>
-      <c r="C88" s="44"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="34"/>
+      <c r="B88" s="37"/>
+      <c r="C88" s="48"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="38"/>
       <c r="F88" s="18" t="s">
         <v>183</v>
       </c>
@@ -2905,29 +2919,29 @@
       <c r="A89" s="22">
         <v>86</v>
       </c>
-      <c r="B89" s="33"/>
-      <c r="C89" s="44"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="26" t="s">
-        <v>176</v>
+      <c r="B89" s="37"/>
+      <c r="C89" s="48"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="32" t="s">
+        <v>245</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="G89" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="G89" s="33"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="22">
         <v>87</v>
       </c>
-      <c r="B90" s="33"/>
-      <c r="C90" s="44"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="27" t="s">
-        <v>180</v>
+      <c r="B90" s="37"/>
+      <c r="C90" s="48"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G90" s="7"/>
     </row>
@@ -2935,27 +2949,29 @@
       <c r="A91" s="22">
         <v>88</v>
       </c>
-      <c r="B91" s="33"/>
-      <c r="C91" s="44"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F91" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="G91" s="26"/>
+      <c r="B91" s="37"/>
+      <c r="C91" s="48"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G91" s="7"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="22">
         <v>89</v>
       </c>
-      <c r="B92" s="33"/>
-      <c r="C92" s="44"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="45" t="s">
-        <v>235</v>
+      <c r="B92" s="37"/>
+      <c r="C92" s="48"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F92" s="34" t="s">
+        <v>199</v>
       </c>
       <c r="G92" s="26"/>
     </row>
@@ -2963,12 +2979,12 @@
       <c r="A93" s="22">
         <v>90</v>
       </c>
-      <c r="B93" s="33"/>
-      <c r="C93" s="44"/>
-      <c r="D93" s="33"/>
-      <c r="E93" s="33"/>
-      <c r="F93" s="45" t="s">
-        <v>200</v>
+      <c r="B93" s="37"/>
+      <c r="C93" s="48"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="37"/>
+      <c r="F93" s="34" t="s">
+        <v>235</v>
       </c>
       <c r="G93" s="26"/>
     </row>
@@ -2976,25 +2992,25 @@
       <c r="A94" s="22">
         <v>91</v>
       </c>
-      <c r="B94" s="33"/>
-      <c r="C94" s="44"/>
-      <c r="D94" s="33"/>
-      <c r="E94" s="33"/>
-      <c r="F94" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="G94" s="7"/>
+      <c r="B94" s="37"/>
+      <c r="C94" s="48"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="37"/>
+      <c r="F94" s="34" t="s">
+        <v>200</v>
+      </c>
+      <c r="G94" s="26"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="22">
         <v>92</v>
       </c>
-      <c r="B95" s="33"/>
-      <c r="C95" s="44"/>
-      <c r="D95" s="33"/>
-      <c r="E95" s="34"/>
-      <c r="F95" s="6" t="s">
-        <v>84</v>
+      <c r="B95" s="37"/>
+      <c r="C95" s="48"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="37"/>
+      <c r="F95" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="G95" s="7"/>
     </row>
@@ -3002,40 +3018,40 @@
       <c r="A96" s="22">
         <v>93</v>
       </c>
-      <c r="B96" s="33"/>
-      <c r="C96" s="44"/>
-      <c r="D96" s="33"/>
-      <c r="E96" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="F96" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="G96" s="26"/>
+      <c r="B96" s="37"/>
+      <c r="C96" s="48"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="38"/>
+      <c r="F96" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G96" s="7"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="22">
         <v>94</v>
       </c>
-      <c r="B97" s="33"/>
-      <c r="C97" s="44"/>
-      <c r="D97" s="33"/>
-      <c r="E97" s="33"/>
+      <c r="B97" s="37"/>
+      <c r="C97" s="48"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="36" t="s">
+        <v>177</v>
+      </c>
       <c r="F97" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="G97" s="7"/>
+        <v>219</v>
+      </c>
+      <c r="G97" s="26"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="22">
         <v>95</v>
       </c>
-      <c r="B98" s="33"/>
-      <c r="C98" s="44"/>
-      <c r="D98" s="33"/>
-      <c r="E98" s="34"/>
+      <c r="B98" s="37"/>
+      <c r="C98" s="48"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="37"/>
       <c r="F98" s="18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G98" s="7"/>
     </row>
@@ -3043,14 +3059,12 @@
       <c r="A99" s="22">
         <v>96</v>
       </c>
-      <c r="B99" s="33"/>
-      <c r="C99" s="44"/>
-      <c r="D99" s="33"/>
-      <c r="E99" s="28" t="s">
-        <v>184</v>
-      </c>
+      <c r="B99" s="37"/>
+      <c r="C99" s="48"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="38"/>
       <c r="F99" s="18" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G99" s="7"/>
     </row>
@@ -3058,16 +3072,14 @@
       <c r="A100" s="22">
         <v>97</v>
       </c>
-      <c r="B100" s="33"/>
-      <c r="C100" s="44"/>
-      <c r="D100" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="E100" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>128</v>
+      <c r="B100" s="37"/>
+      <c r="C100" s="48"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="F100" s="18" t="s">
+        <v>136</v>
       </c>
       <c r="G100" s="7"/>
     </row>
@@ -3075,12 +3087,16 @@
       <c r="A101" s="22">
         <v>98</v>
       </c>
-      <c r="B101" s="33"/>
-      <c r="C101" s="44"/>
-      <c r="D101" s="33"/>
-      <c r="E101" s="38"/>
+      <c r="B101" s="37"/>
+      <c r="C101" s="48"/>
+      <c r="D101" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="E101" s="41" t="s">
+        <v>169</v>
+      </c>
       <c r="F101" s="3" t="s">
-        <v>173</v>
+        <v>128</v>
       </c>
       <c r="G101" s="7"/>
     </row>
@@ -3088,14 +3104,12 @@
       <c r="A102" s="22">
         <v>99</v>
       </c>
-      <c r="B102" s="33"/>
-      <c r="C102" s="44"/>
-      <c r="D102" s="33"/>
-      <c r="E102" s="7" t="s">
-        <v>172</v>
-      </c>
+      <c r="B102" s="37"/>
+      <c r="C102" s="48"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="41"/>
       <c r="F102" s="3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G102" s="7"/>
     </row>
@@ -3103,14 +3117,14 @@
       <c r="A103" s="22">
         <v>100</v>
       </c>
-      <c r="B103" s="33"/>
-      <c r="C103" s="44"/>
-      <c r="D103" s="33"/>
+      <c r="B103" s="37"/>
+      <c r="C103" s="48"/>
+      <c r="D103" s="37"/>
       <c r="E103" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="G103" s="7"/>
     </row>
@@ -3118,14 +3132,14 @@
       <c r="A104" s="22">
         <v>101</v>
       </c>
-      <c r="B104" s="33"/>
-      <c r="C104" s="44"/>
-      <c r="D104" s="33"/>
+      <c r="B104" s="37"/>
+      <c r="C104" s="48"/>
+      <c r="D104" s="37"/>
       <c r="E104" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F104" s="6" t="s">
-        <v>112</v>
+        <v>170</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>129</v>
       </c>
       <c r="G104" s="7"/>
     </row>
@@ -3133,14 +3147,14 @@
       <c r="A105" s="22">
         <v>102</v>
       </c>
-      <c r="B105" s="33"/>
-      <c r="C105" s="44"/>
-      <c r="D105" s="33"/>
-      <c r="E105" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>205</v>
+      <c r="B105" s="37"/>
+      <c r="C105" s="48"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>112</v>
       </c>
       <c r="G105" s="7"/>
     </row>
@@ -3148,25 +3162,27 @@
       <c r="A106" s="22">
         <v>103</v>
       </c>
-      <c r="B106" s="33"/>
-      <c r="C106" s="44"/>
-      <c r="D106" s="33"/>
-      <c r="E106" s="33"/>
+      <c r="B106" s="37"/>
+      <c r="C106" s="48"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="36" t="s">
+        <v>113</v>
+      </c>
       <c r="F106" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G106" s="26"/>
+        <v>205</v>
+      </c>
+      <c r="G106" s="7"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="22">
         <v>104</v>
       </c>
-      <c r="B107" s="33"/>
-      <c r="C107" s="44"/>
-      <c r="D107" s="33"/>
-      <c r="E107" s="33"/>
+      <c r="B107" s="37"/>
+      <c r="C107" s="48"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="37"/>
       <c r="F107" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G107" s="26"/>
     </row>
@@ -3174,25 +3190,25 @@
       <c r="A108" s="22">
         <v>105</v>
       </c>
-      <c r="B108" s="33"/>
-      <c r="C108" s="44"/>
-      <c r="D108" s="33"/>
-      <c r="E108" s="33"/>
+      <c r="B108" s="37"/>
+      <c r="C108" s="48"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="37"/>
       <c r="F108" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="G108" s="7"/>
+        <v>209</v>
+      </c>
+      <c r="G108" s="26"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="22">
         <v>106</v>
       </c>
-      <c r="B109" s="33"/>
-      <c r="C109" s="44"/>
-      <c r="D109" s="33"/>
-      <c r="E109" s="33"/>
-      <c r="F109" s="6" t="s">
-        <v>208</v>
+      <c r="B109" s="37"/>
+      <c r="C109" s="48"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="37"/>
+      <c r="F109" s="3" t="s">
+        <v>206</v>
       </c>
       <c r="G109" s="7"/>
     </row>
@@ -3200,12 +3216,12 @@
       <c r="A110" s="22">
         <v>107</v>
       </c>
-      <c r="B110" s="33"/>
-      <c r="C110" s="44"/>
-      <c r="D110" s="33"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="46" t="s">
-        <v>207</v>
+      <c r="B110" s="37"/>
+      <c r="C110" s="48"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="37"/>
+      <c r="F110" s="6" t="s">
+        <v>208</v>
       </c>
       <c r="G110" s="7"/>
     </row>
@@ -3213,14 +3229,12 @@
       <c r="A111" s="22">
         <v>108</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="44"/>
-      <c r="D111" s="33"/>
-      <c r="E111" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>114</v>
+      <c r="B111" s="37"/>
+      <c r="C111" s="48"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="38"/>
+      <c r="F111" s="35" t="s">
+        <v>207</v>
       </c>
       <c r="G111" s="7"/>
     </row>
@@ -3228,16 +3242,14 @@
       <c r="A112" s="22">
         <v>109</v>
       </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="44"/>
-      <c r="D112" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>161</v>
+      <c r="B112" s="37"/>
+      <c r="C112" s="48"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>165</v>
+        <v>114</v>
       </c>
       <c r="G112" s="7"/>
     </row>
@@ -3245,14 +3257,16 @@
       <c r="A113" s="22">
         <v>110</v>
       </c>
-      <c r="B113" s="33"/>
-      <c r="C113" s="44"/>
-      <c r="D113" s="36"/>
+      <c r="B113" s="37"/>
+      <c r="C113" s="48"/>
+      <c r="D113" s="39" t="s">
+        <v>56</v>
+      </c>
       <c r="E113" s="16" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G113" s="7"/>
     </row>
@@ -3260,14 +3274,14 @@
       <c r="A114" s="22">
         <v>111</v>
       </c>
-      <c r="B114" s="33"/>
-      <c r="C114" s="44"/>
-      <c r="D114" s="36"/>
+      <c r="B114" s="37"/>
+      <c r="C114" s="48"/>
+      <c r="D114" s="42"/>
       <c r="E114" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G114" s="7"/>
     </row>
@@ -3275,27 +3289,29 @@
       <c r="A115" s="22">
         <v>112</v>
       </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="44"/>
-      <c r="D115" s="36"/>
-      <c r="E115" s="35" t="s">
-        <v>236</v>
-      </c>
-      <c r="F115" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="G115" s="26"/>
+      <c r="B115" s="37"/>
+      <c r="C115" s="48"/>
+      <c r="D115" s="42"/>
+      <c r="E115" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G115" s="7"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="22">
         <v>113</v>
       </c>
-      <c r="B116" s="33"/>
-      <c r="C116" s="44"/>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
+      <c r="B116" s="37"/>
+      <c r="C116" s="48"/>
+      <c r="D116" s="42"/>
+      <c r="E116" s="39" t="s">
+        <v>236</v>
+      </c>
       <c r="F116" s="20" t="s">
-        <v>68</v>
+        <v>139</v>
       </c>
       <c r="G116" s="26"/>
     </row>
@@ -3303,12 +3319,12 @@
       <c r="A117" s="22">
         <v>114</v>
       </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="44"/>
-      <c r="D117" s="36"/>
-      <c r="E117" s="36"/>
-      <c r="F117" s="3" t="s">
-        <v>204</v>
+      <c r="B117" s="37"/>
+      <c r="C117" s="48"/>
+      <c r="D117" s="42"/>
+      <c r="E117" s="42"/>
+      <c r="F117" s="20" t="s">
+        <v>68</v>
       </c>
       <c r="G117" s="26"/>
     </row>
@@ -3316,12 +3332,12 @@
       <c r="A118" s="22">
         <v>115</v>
       </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="44"/>
-      <c r="D118" s="36"/>
-      <c r="E118" s="36"/>
-      <c r="F118" s="20" t="s">
-        <v>140</v>
+      <c r="B118" s="37"/>
+      <c r="C118" s="48"/>
+      <c r="D118" s="42"/>
+      <c r="E118" s="42"/>
+      <c r="F118" s="3" t="s">
+        <v>204</v>
       </c>
       <c r="G118" s="26"/>
     </row>
@@ -3329,12 +3345,12 @@
       <c r="A119" s="22">
         <v>116</v>
       </c>
-      <c r="B119" s="33"/>
-      <c r="C119" s="44"/>
-      <c r="D119" s="36"/>
-      <c r="E119" s="37"/>
-      <c r="F119" s="3" t="s">
-        <v>203</v>
+      <c r="B119" s="37"/>
+      <c r="C119" s="48"/>
+      <c r="D119" s="42"/>
+      <c r="E119" s="42"/>
+      <c r="F119" s="20" t="s">
+        <v>140</v>
       </c>
       <c r="G119" s="26"/>
     </row>
@@ -3342,33 +3358,27 @@
       <c r="A120" s="22">
         <v>117</v>
       </c>
-      <c r="B120" s="33"/>
-      <c r="C120" s="44"/>
-      <c r="D120" s="36"/>
-      <c r="E120" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="F120" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="G120" s="7"/>
+      <c r="B120" s="37"/>
+      <c r="C120" s="48"/>
+      <c r="D120" s="42"/>
+      <c r="E120" s="40"/>
+      <c r="F120" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G120" s="26"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="22">
         <v>118</v>
       </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D121" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="E121" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>102</v>
+      <c r="B121" s="37"/>
+      <c r="C121" s="48"/>
+      <c r="D121" s="42"/>
+      <c r="E121" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="F121" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="G121" s="7"/>
     </row>
@@ -3376,12 +3386,18 @@
       <c r="A122" s="22">
         <v>119</v>
       </c>
-      <c r="B122" s="33"/>
-      <c r="C122" s="33"/>
-      <c r="D122" s="33"/>
-      <c r="E122" s="33"/>
+      <c r="B122" s="37"/>
+      <c r="C122" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="E122" s="36" t="s">
+        <v>96</v>
+      </c>
       <c r="F122" s="3" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="G122" s="7"/>
     </row>
@@ -3389,14 +3405,12 @@
       <c r="A123" s="22">
         <v>120</v>
       </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="33"/>
-      <c r="D123" s="33"/>
-      <c r="E123" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F123" s="11" t="s">
-        <v>103</v>
+      <c r="B123" s="37"/>
+      <c r="C123" s="37"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="37"/>
+      <c r="F123" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="G123" s="7"/>
     </row>
@@ -3404,14 +3418,14 @@
       <c r="A124" s="22">
         <v>121</v>
       </c>
-      <c r="B124" s="33"/>
-      <c r="C124" s="33"/>
-      <c r="D124" s="34"/>
+      <c r="B124" s="37"/>
+      <c r="C124" s="37"/>
+      <c r="D124" s="37"/>
       <c r="E124" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F124" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G124" s="7"/>
     </row>
@@ -3419,16 +3433,14 @@
       <c r="A125" s="22">
         <v>122</v>
       </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="33"/>
-      <c r="D125" s="32" t="s">
-        <v>34</v>
-      </c>
+      <c r="B125" s="37"/>
+      <c r="C125" s="37"/>
+      <c r="D125" s="38"/>
       <c r="E125" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F125" s="9" t="s">
-        <v>44</v>
+        <v>104</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>105</v>
       </c>
       <c r="G125" s="7"/>
     </row>
@@ -3436,14 +3448,16 @@
       <c r="A126" s="22">
         <v>123</v>
       </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="33"/>
-      <c r="D126" s="33"/>
+      <c r="B126" s="37"/>
+      <c r="C126" s="37"/>
+      <c r="D126" s="36" t="s">
+        <v>34</v>
+      </c>
       <c r="E126" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F126" s="9" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
       <c r="G126" s="7"/>
     </row>
@@ -3451,16 +3465,14 @@
       <c r="A127" s="22">
         <v>124</v>
       </c>
-      <c r="B127" s="33"/>
-      <c r="C127" s="33"/>
-      <c r="D127" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>141</v>
+      <c r="B127" s="37"/>
+      <c r="C127" s="37"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="G127" s="7"/>
     </row>
@@ -3468,12 +3480,16 @@
       <c r="A128" s="22">
         <v>125</v>
       </c>
-      <c r="B128" s="33"/>
-      <c r="C128" s="33"/>
-      <c r="D128" s="33"/>
-      <c r="E128" s="33"/>
+      <c r="B128" s="37"/>
+      <c r="C128" s="37"/>
+      <c r="D128" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E128" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="F128" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G128" s="7"/>
     </row>
@@ -3481,12 +3497,12 @@
       <c r="A129" s="22">
         <v>126</v>
       </c>
-      <c r="B129" s="33"/>
-      <c r="C129" s="33"/>
-      <c r="D129" s="33"/>
-      <c r="E129" s="34"/>
+      <c r="B129" s="37"/>
+      <c r="C129" s="37"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="37"/>
       <c r="F129" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G129" s="7"/>
     </row>
@@ -3494,14 +3510,12 @@
       <c r="A130" s="22">
         <v>127</v>
       </c>
-      <c r="B130" s="33"/>
-      <c r="C130" s="33"/>
-      <c r="D130" s="33"/>
-      <c r="E130" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F130" s="3" t="s">
-        <v>86</v>
+      <c r="B130" s="37"/>
+      <c r="C130" s="37"/>
+      <c r="D130" s="37"/>
+      <c r="E130" s="38"/>
+      <c r="F130" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="G130" s="7"/>
     </row>
@@ -3509,14 +3523,14 @@
       <c r="A131" s="22">
         <v>128</v>
       </c>
-      <c r="B131" s="33"/>
-      <c r="C131" s="33"/>
-      <c r="D131" s="34"/>
+      <c r="B131" s="37"/>
+      <c r="C131" s="37"/>
+      <c r="D131" s="37"/>
       <c r="E131" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G131" s="7"/>
     </row>
@@ -3524,16 +3538,14 @@
       <c r="A132" s="22">
         <v>129</v>
       </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="33"/>
-      <c r="D132" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="E132" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F132" s="9" t="s">
-        <v>88</v>
+      <c r="B132" s="37"/>
+      <c r="C132" s="37"/>
+      <c r="D132" s="38"/>
+      <c r="E132" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="G132" s="7"/>
     </row>
@@ -3541,12 +3553,16 @@
       <c r="A133" s="22">
         <v>130</v>
       </c>
-      <c r="B133" s="33"/>
-      <c r="C133" s="33"/>
-      <c r="D133" s="33"/>
-      <c r="E133" s="34"/>
+      <c r="B133" s="37"/>
+      <c r="C133" s="37"/>
+      <c r="D133" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E133" s="36" t="s">
+        <v>106</v>
+      </c>
       <c r="F133" s="9" t="s">
-        <v>144</v>
+        <v>88</v>
       </c>
       <c r="G133" s="7"/>
     </row>
@@ -3554,29 +3570,27 @@
       <c r="A134" s="22">
         <v>131</v>
       </c>
-      <c r="B134" s="33"/>
-      <c r="C134" s="33"/>
-      <c r="D134" s="33"/>
-      <c r="E134" s="29" t="s">
-        <v>216</v>
-      </c>
+      <c r="B134" s="37"/>
+      <c r="C134" s="37"/>
+      <c r="D134" s="37"/>
+      <c r="E134" s="38"/>
       <c r="F134" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="G134" s="26"/>
+        <v>144</v>
+      </c>
+      <c r="G134" s="7"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A135" s="22">
         <v>132</v>
       </c>
-      <c r="B135" s="33"/>
-      <c r="C135" s="33"/>
-      <c r="D135" s="33"/>
+      <c r="B135" s="37"/>
+      <c r="C135" s="37"/>
+      <c r="D135" s="37"/>
       <c r="E135" s="29" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="F135" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G135" s="26"/>
     </row>
@@ -3584,14 +3598,14 @@
       <c r="A136" s="22">
         <v>133</v>
       </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="33"/>
-      <c r="D136" s="33"/>
+      <c r="B136" s="37"/>
+      <c r="C136" s="37"/>
+      <c r="D136" s="37"/>
       <c r="E136" s="29" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F136" s="9" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G136" s="26"/>
     </row>
@@ -3599,14 +3613,14 @@
       <c r="A137" s="22">
         <v>134</v>
       </c>
-      <c r="B137" s="33"/>
-      <c r="C137" s="33"/>
-      <c r="D137" s="33"/>
+      <c r="B137" s="37"/>
+      <c r="C137" s="37"/>
+      <c r="D137" s="37"/>
       <c r="E137" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F137" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G137" s="26"/>
     </row>
@@ -3614,29 +3628,29 @@
       <c r="A138" s="22">
         <v>135</v>
       </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="33"/>
-      <c r="D138" s="33"/>
-      <c r="E138" s="7" t="s">
-        <v>42</v>
+      <c r="B138" s="37"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="29" t="s">
+        <v>213</v>
       </c>
       <c r="F138" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="G138" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="G138" s="26"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A139" s="22">
         <v>136</v>
       </c>
-      <c r="B139" s="33"/>
-      <c r="C139" s="33"/>
-      <c r="D139" s="34"/>
+      <c r="B139" s="37"/>
+      <c r="C139" s="37"/>
+      <c r="D139" s="37"/>
       <c r="E139" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F139" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G139" s="7"/>
     </row>
@@ -3644,16 +3658,14 @@
       <c r="A140" s="22">
         <v>137</v>
       </c>
-      <c r="B140" s="33"/>
-      <c r="C140" s="33"/>
-      <c r="D140" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E140" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>193</v>
+      <c r="B140" s="37"/>
+      <c r="C140" s="37"/>
+      <c r="D140" s="38"/>
+      <c r="E140" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="G140" s="7"/>
     </row>
@@ -3661,14 +3673,16 @@
       <c r="A141" s="22">
         <v>138</v>
       </c>
-      <c r="B141" s="33"/>
-      <c r="C141" s="33"/>
-      <c r="D141" s="33"/>
+      <c r="B141" s="37"/>
+      <c r="C141" s="37"/>
+      <c r="D141" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="E141" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="F141" s="9" t="s">
-        <v>93</v>
+        <v>192</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>193</v>
       </c>
       <c r="G141" s="7"/>
     </row>
@@ -3676,14 +3690,14 @@
       <c r="A142" s="22">
         <v>139</v>
       </c>
-      <c r="B142" s="33"/>
-      <c r="C142" s="33"/>
-      <c r="D142" s="33"/>
+      <c r="B142" s="37"/>
+      <c r="C142" s="37"/>
+      <c r="D142" s="37"/>
       <c r="E142" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F142" s="9" t="s">
-        <v>190</v>
+        <v>93</v>
       </c>
       <c r="G142" s="7"/>
     </row>
@@ -3691,14 +3705,14 @@
       <c r="A143" s="22">
         <v>140</v>
       </c>
-      <c r="B143" s="33"/>
-      <c r="C143" s="33"/>
-      <c r="D143" s="34"/>
+      <c r="B143" s="37"/>
+      <c r="C143" s="37"/>
+      <c r="D143" s="37"/>
       <c r="E143" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>191</v>
+        <v>52</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>190</v>
       </c>
       <c r="G143" s="7"/>
     </row>
@@ -3706,16 +3720,14 @@
       <c r="A144" s="22">
         <v>141</v>
       </c>
-      <c r="B144" s="33"/>
-      <c r="C144" s="33"/>
-      <c r="D144" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="E144" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F144" s="9" t="s">
-        <v>19</v>
+      <c r="B144" s="37"/>
+      <c r="C144" s="37"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="G144" s="7"/>
     </row>
@@ -3723,40 +3735,42 @@
       <c r="A145" s="22">
         <v>142</v>
       </c>
-      <c r="B145" s="33"/>
-      <c r="C145" s="33"/>
-      <c r="D145" s="33"/>
-      <c r="E145" s="33"/>
-      <c r="F145" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G145" s="26"/>
+      <c r="B145" s="37"/>
+      <c r="C145" s="37"/>
+      <c r="D145" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E145" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G145" s="7"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A146" s="22">
         <v>143</v>
       </c>
-      <c r="B146" s="33"/>
-      <c r="C146" s="33"/>
-      <c r="D146" s="33"/>
-      <c r="E146" s="34"/>
+      <c r="B146" s="37"/>
+      <c r="C146" s="37"/>
+      <c r="D146" s="37"/>
+      <c r="E146" s="37"/>
       <c r="F146" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G146" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="G146" s="26"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A147" s="22">
         <v>144</v>
       </c>
-      <c r="B147" s="33"/>
-      <c r="C147" s="33"/>
-      <c r="D147" s="33"/>
-      <c r="E147" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>91</v>
+      <c r="B147" s="37"/>
+      <c r="C147" s="37"/>
+      <c r="D147" s="37"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="G147" s="7"/>
     </row>
@@ -3764,25 +3778,35 @@
       <c r="A148" s="22">
         <v>145</v>
       </c>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="7" t="s">
+      <c r="B148" s="37"/>
+      <c r="C148" s="37"/>
+      <c r="D148" s="37"/>
+      <c r="E148" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" s="7"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" s="22">
+        <v>146</v>
+      </c>
+      <c r="B149" s="38"/>
+      <c r="C149" s="38"/>
+      <c r="D149" s="38"/>
+      <c r="E149" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F148" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="G148" s="7"/>
+      <c r="G149" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="E47:E49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="E115:E119"/>
-    <mergeCell ref="E96:E98"/>
+    <mergeCell ref="E97:E99"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D18:D27"/>
     <mergeCell ref="D67:D73"/>
@@ -3794,38 +3818,43 @@
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D4:D11"/>
-    <mergeCell ref="B4:B148"/>
-    <mergeCell ref="C4:C120"/>
+    <mergeCell ref="B4:B149"/>
+    <mergeCell ref="C4:C121"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C121:C148"/>
-    <mergeCell ref="E144:E146"/>
-    <mergeCell ref="D74:D99"/>
-    <mergeCell ref="E132:E133"/>
+    <mergeCell ref="C122:C149"/>
+    <mergeCell ref="E145:E147"/>
+    <mergeCell ref="D74:D100"/>
+    <mergeCell ref="E133:E134"/>
     <mergeCell ref="E61:E63"/>
     <mergeCell ref="E45:E46"/>
-    <mergeCell ref="D100:D111"/>
-    <mergeCell ref="E105:E110"/>
-    <mergeCell ref="D144:D148"/>
-    <mergeCell ref="D125:D126"/>
+    <mergeCell ref="D101:D112"/>
+    <mergeCell ref="E106:E111"/>
+    <mergeCell ref="E128:E130"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="D122:D125"/>
+    <mergeCell ref="D113:D121"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="E47:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E116:E120"/>
+    <mergeCell ref="D145:D149"/>
+    <mergeCell ref="D126:D127"/>
     <mergeCell ref="E74:E75"/>
     <mergeCell ref="E76:E81"/>
     <mergeCell ref="D36:D65"/>
     <mergeCell ref="E71:E73"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="D132:D139"/>
-    <mergeCell ref="D140:D143"/>
+    <mergeCell ref="D128:D132"/>
+    <mergeCell ref="D133:D140"/>
+    <mergeCell ref="D141:D144"/>
     <mergeCell ref="E36:E37"/>
     <mergeCell ref="E38:E44"/>
     <mergeCell ref="E82:E84"/>
-    <mergeCell ref="E91:E95"/>
+    <mergeCell ref="E92:E96"/>
     <mergeCell ref="E87:E88"/>
     <mergeCell ref="E64:E65"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E127:E129"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="E121:E122"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="D112:D120"/>
+    <mergeCell ref="E101:E102"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
